--- a/doc/数据融合中心 数据服务API(更新中).xlsx
+++ b/doc/数据融合中心 数据服务API(更新中).xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAB6FE2-2906-42DD-9893-A90DB0001E6F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D8D5C4-88C6-4C19-8AAB-5A38E5656573}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="7155" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="权限" sheetId="1" r:id="rId1"/>
     <sheet name="菜单" sheetId="2" r:id="rId2"/>
     <sheet name="实体" sheetId="4" r:id="rId3"/>
     <sheet name="枚举" sheetId="5" r:id="rId4"/>
+    <sheet name="列表模板数据" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -504,7 +505,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -585,6 +586,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -838,10 +855,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -856,39 +874,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -904,17 +892,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -932,137 +911,181 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1342,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1357,57 +1380,57 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="59"/>
-      <c r="G3" s="10" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="G3" s="44" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="43" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="G4" s="10"/>
+      <c r="E4" s="48"/>
+      <c r="G4" s="44"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="9"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="G5" s="10"/>
+      <c r="E5" s="48"/>
+      <c r="G5" s="44"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="G6" s="10"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="2:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1419,10 +1442,10 @@
       <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="44"/>
     </row>
     <row r="8" spans="2:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="B8" s="9"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1432,10 +1455,10 @@
       <c r="E8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="44"/>
     </row>
     <row r="9" spans="2:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="9"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
@@ -1445,7 +1468,7 @@
       <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="10"/>
+      <c r="G9" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1481,48 +1504,48 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="59"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="63"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="52"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="50"/>
     </row>
     <row r="6" spans="2:5" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="E6" s="29" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1542,8 +1565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2841EEAF-8B01-4C4B-B25A-06D60427D9CE}">
   <dimension ref="B1:E84"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:E42"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1556,734 +1579,737 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="59"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="46"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="47"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="49" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="52"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="52"/>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="49"/>
+      <c r="C8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="50"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="51"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="62"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="49" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="52"/>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="77" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="52"/>
-      <c r="C12" s="20" t="s">
+      <c r="B12" s="49"/>
+      <c r="C12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="20" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="52"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="20" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="53"/>
-      <c r="C14" s="43" t="s">
+      <c r="B14" s="58"/>
+      <c r="C14" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="66" t="s">
+      <c r="E14" s="29" t="s">
         <v>43</v>
       </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E15" s="76"/>
     </row>
     <row r="16" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="62"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
     </row>
     <row r="18" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="59"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="47"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="31"/>
+      <c r="E19" s="54"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="46"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="47"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="56"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="60"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="50"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="51"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="62"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="49" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="41" t="s">
+      <c r="E23" s="20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="53"/>
-      <c r="C24" s="54" t="s">
+      <c r="B24" s="58"/>
+      <c r="C24" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="45" t="s">
+      <c r="E24" s="24" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="29"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="62"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
     </row>
     <row r="28" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="59"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="47"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="31"/>
+      <c r="E29" s="54"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="37"/>
+      <c r="B30" s="67"/>
       <c r="C30" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="31"/>
+      <c r="E30" s="54"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="46"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="47"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="57"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="49"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="50"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="50"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="51"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="62"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="49" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="41" t="s">
+      <c r="E34" s="20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="52"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="41" t="s">
+      <c r="E35" s="20" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="53"/>
-      <c r="C36" s="43" t="s">
+      <c r="B36" s="58"/>
+      <c r="C36" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="69" t="s">
+      <c r="D36" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="66" t="s">
+      <c r="E36" s="29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="62"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="39"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="57" t="s">
+      <c r="B40" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="59"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="47"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="67" t="s">
+      <c r="B41" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D41" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="31"/>
+      <c r="E41" s="54"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="46"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="47"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="57"/>
     </row>
     <row r="43" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="66" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="68" t="s">
+      <c r="D43" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E43" s="70" t="s">
+      <c r="E43" s="33" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B44" s="36"/>
+      <c r="B44" s="68"/>
       <c r="C44" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="70" t="s">
+      <c r="E44" s="33" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45" s="37"/>
+      <c r="B45" s="67"/>
       <c r="C45" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="71" t="s">
+      <c r="E45" s="34" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="74"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="73"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="64"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="49" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E47" s="38" t="s">
+      <c r="E47" s="19" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="53"/>
-      <c r="C48" s="43" t="s">
+      <c r="B48" s="58"/>
+      <c r="C48" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="69" t="s">
+      <c r="D48" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="72" t="s">
+      <c r="E48" s="35" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="60" t="s">
+      <c r="B51" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="61"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="62"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="39"/>
     </row>
     <row r="52" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="57" t="s">
+      <c r="B52" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="59"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="47"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="E53" s="31"/>
+      <c r="E53" s="54"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="37"/>
-      <c r="C54" s="12" t="s">
+      <c r="B54" s="67"/>
+      <c r="C54" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="E54" s="31"/>
+      <c r="E54" s="54"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" s="32"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="33"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="71"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="67" t="s">
+      <c r="B56" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="7"/>
-      <c r="E56" s="73"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="64"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="74"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="73"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="64"/>
     </row>
     <row r="58" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="64" t="s">
+      <c r="B58" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="43" t="s">
+      <c r="C58" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="69" t="s">
+      <c r="D58" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E58" s="72" t="s">
+      <c r="E58" s="35" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="61" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="60" t="s">
+      <c r="B61" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="61"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="62"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="39"/>
     </row>
     <row r="62" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="57" t="s">
+      <c r="B62" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="C62" s="58"/>
-      <c r="D62" s="58"/>
-      <c r="E62" s="59"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="47"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="24" t="s">
+      <c r="D63" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="E63" s="31"/>
+      <c r="E63" s="54"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="36"/>
-      <c r="C64" s="12" t="s">
+      <c r="B64" s="68"/>
+      <c r="C64" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D64" s="24" t="s">
+      <c r="D64" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="E64" s="31"/>
+      <c r="E64" s="54"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="32"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="33"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="71"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="52" t="s">
+      <c r="B66" s="49" t="s">
         <v>3</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="D66" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="35" t="s">
+      <c r="E66" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="52"/>
+      <c r="B67" s="49"/>
       <c r="C67" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D67" s="18" t="s">
+      <c r="D67" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E67" s="35" t="s">
+      <c r="E67" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="52"/>
+      <c r="B68" s="49"/>
       <c r="C68" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="D68" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E68" s="35" t="s">
+      <c r="E68" s="18" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B69" s="52"/>
-      <c r="C69" s="17" t="s">
+      <c r="B69" s="49"/>
+      <c r="C69" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="18" t="s">
+      <c r="D69" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E69" s="38" t="s">
+      <c r="E69" s="19" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" s="39"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="40"/>
+      <c r="B70" s="72"/>
+      <c r="C70" s="73"/>
+      <c r="D70" s="73"/>
+      <c r="E70" s="74"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="52" t="s">
+      <c r="B71" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C71" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D71" s="21" t="s">
+      <c r="D71" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E71" s="42" t="s">
+      <c r="E71" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="72" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="53"/>
-      <c r="C72" s="43" t="s">
+      <c r="B72" s="58"/>
+      <c r="C72" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D72" s="44" t="s">
+      <c r="D72" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E72" s="45" t="s">
+      <c r="E72" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="74" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="75" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B75" s="60" t="s">
+      <c r="B75" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="C75" s="61"/>
-      <c r="D75" s="61"/>
-      <c r="E75" s="62"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="39"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B76" s="57" t="s">
+      <c r="B76" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="C76" s="58"/>
-      <c r="D76" s="58"/>
-      <c r="E76" s="59"/>
+      <c r="C76" s="46"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="47"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B77" s="34" t="s">
+      <c r="B77" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C77" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D77" s="24" t="s">
+      <c r="D77" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="E77" s="31"/>
+      <c r="E77" s="54"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B78" s="36"/>
-      <c r="C78" s="12" t="s">
+      <c r="B78" s="68"/>
+      <c r="C78" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D78" s="24" t="s">
+      <c r="D78" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="E78" s="31"/>
+      <c r="E78" s="54"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B79" s="32"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="33"/>
+      <c r="B79" s="69"/>
+      <c r="C79" s="70"/>
+      <c r="D79" s="70"/>
+      <c r="E79" s="71"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B80" s="52" t="s">
+      <c r="B80" s="49" t="s">
         <v>3</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D80" s="18" t="s">
+      <c r="D80" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E80" s="35" t="s">
+      <c r="E80" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B81" s="52"/>
+      <c r="B81" s="49"/>
       <c r="C81" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D81" s="18" t="s">
+      <c r="D81" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E81" s="35" t="s">
+      <c r="E81" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B82" s="39"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="40"/>
+      <c r="B82" s="72"/>
+      <c r="C82" s="73"/>
+      <c r="D82" s="73"/>
+      <c r="E82" s="74"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="52" t="s">
+      <c r="B83" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C83" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D83" s="21" t="s">
+      <c r="D83" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E83" s="35" t="s">
+      <c r="E83" s="18" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="84" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="53"/>
-      <c r="C84" s="43" t="s">
+      <c r="B84" s="58"/>
+      <c r="C84" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D84" s="44" t="s">
+      <c r="D84" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E84" s="75" t="s">
+      <c r="E84" s="36" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2306,17 +2332,17 @@
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="B63:B64"/>
     <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B57:E57"/>
     <mergeCell ref="B61:E61"/>
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="B51:E51"/>
     <mergeCell ref="B52:E52"/>
     <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B57:E57"/>
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="B42:E42"/>
     <mergeCell ref="B46:E46"/>
@@ -2333,6 +2359,10 @@
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:B8"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="B17:E17"/>
@@ -2341,12 +2371,11 @@
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:B8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E11" location="列表模板数据!A1" display="列表模板数据" xr:uid="{98F93C23-89A7-4702-A3D0-296F866E68DE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2369,165 +2398,164 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="59"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="33"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="46"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="47"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="50"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="51"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="62"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="49" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="B9" s="52"/>
-      <c r="C9" s="20" t="s">
+      <c r="B9" s="49"/>
+      <c r="C9" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="20" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="62"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="33"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="71"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="46"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="47"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="18" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="50"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="51"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="62"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="49" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="20" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="52"/>
-      <c r="C19" s="20" t="s">
+      <c r="B19" s="49"/>
+      <c r="C19" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="20" t="s">
         <v>102</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B17:E17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C4:E4"/>
@@ -2539,8 +2567,23 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B17:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265F0A73-6FFD-44E0-8248-4B560CEE8824}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="115" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/数据融合中心 数据服务API(更新中).xlsx
+++ b/doc/数据融合中心 数据服务API(更新中).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D8D5C4-88C6-4C19-8AAB-5A38E5656573}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5049A9D7-6ED2-4823-9525-07CD27E1180D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="7155" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="7155" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="权限" sheetId="1" r:id="rId1"/>
@@ -478,10 +478,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/cas_ops/{optGroupId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>optGroupId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -498,6 +494,10 @@
   </si>
   <si>
     <t>optGroupId对应的级联枚举数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/field/cas_ops/{optGroupId}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -961,126 +961,126 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1380,57 +1380,57 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-      <c r="G3" s="44" t="s">
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="G3" s="46" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="45" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="G4" s="44"/>
+      <c r="E4" s="50"/>
+      <c r="G4" s="46"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="43"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="G5" s="44"/>
+      <c r="E5" s="50"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
-      <c r="G6" s="44"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44"/>
+      <c r="G6" s="46"/>
     </row>
     <row r="7" spans="2:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1442,10 +1442,10 @@
       <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="44"/>
+      <c r="G7" s="46"/>
     </row>
     <row r="8" spans="2:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="B8" s="43"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1455,10 +1455,10 @@
       <c r="E8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="44"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="2:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="43"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
@@ -1468,7 +1468,7 @@
       <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="44"/>
+      <c r="G9" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1504,36 +1504,36 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="49"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="52"/>
     </row>
     <row r="6" spans="2:5" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
@@ -1565,7 +1565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2841EEAF-8B01-4C4B-B25A-06D60427D9CE}">
   <dimension ref="B1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1579,20 +1579,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
@@ -1601,19 +1601,19 @@
       <c r="C4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="54"/>
+      <c r="E4" s="62"/>
     </row>
     <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="51" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1627,7 +1627,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="49"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
@@ -1639,7 +1639,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="49"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="7" t="s">
         <v>25</v>
       </c>
@@ -1651,13 +1651,13 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="61"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="62"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="74"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="51" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1671,19 +1671,19 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="49"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="77" t="s">
+      <c r="E11" s="38" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="49"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="10" t="s">
         <v>34</v>
       </c>
@@ -1695,7 +1695,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="49"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="2" t="s">
         <v>35</v>
       </c>
@@ -1719,24 +1719,24 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E15" s="76"/>
+      <c r="E15" s="37"/>
     </row>
     <row r="16" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
     </row>
     <row r="18" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="17" t="s">
@@ -1745,35 +1745,35 @@
       <c r="C19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="54"/>
+      <c r="E19" s="62"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="55"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="71"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="59"/>
-      <c r="E21" s="60"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="76"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="61"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="62"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="74"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="51" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1806,67 +1806,67 @@
     </row>
     <row r="26" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41"/>
     </row>
     <row r="28" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="47"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="49"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="59" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="53" t="s">
+      <c r="D29" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="54"/>
+      <c r="E29" s="62"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="67"/>
+      <c r="B30" s="66"/>
       <c r="C30" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="65" t="s">
+      <c r="D30" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="54"/>
+      <c r="E30" s="62"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="55"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="57"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="71"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="50"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="52"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="61"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="62"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="74"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="51" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -1880,7 +1880,7 @@
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="49"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="2" t="s">
         <v>46</v>
       </c>
@@ -1905,20 +1905,20 @@
     </row>
     <row r="38" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="39"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="41"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="47"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="49"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="30" t="s">
@@ -1927,19 +1927,19 @@
       <c r="C41" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="53" t="s">
+      <c r="D41" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="54"/>
+      <c r="E41" s="62"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="55"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="57"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="71"/>
     </row>
     <row r="43" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="66" t="s">
+      <c r="B43" s="59" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -1953,7 +1953,7 @@
       </c>
     </row>
     <row r="44" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B44" s="68"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="2" t="s">
         <v>61</v>
       </c>
@@ -1965,7 +1965,7 @@
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45" s="67"/>
+      <c r="B45" s="66"/>
       <c r="C45" s="2" t="s">
         <v>63</v>
       </c>
@@ -1977,13 +1977,13 @@
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="63"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="64"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="67"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="49" t="s">
+      <c r="B47" s="51" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -2010,64 +2010,64 @@
     </row>
     <row r="50" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="37" t="s">
+      <c r="B51" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="39"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="41"/>
     </row>
     <row r="52" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="45" t="s">
+      <c r="B52" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="47"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="49"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="66" t="s">
+      <c r="B53" s="59" t="s">
         <v>21</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="53" t="s">
+      <c r="D53" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="E53" s="54"/>
+      <c r="E53" s="62"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="67"/>
+      <c r="B54" s="66"/>
       <c r="C54" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D54" s="53" t="s">
+      <c r="D54" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="E54" s="54"/>
+      <c r="E54" s="62"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" s="69"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="71"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="65"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C56" s="40" t="s">
+      <c r="C56" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="41"/>
-      <c r="E56" s="64"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="67"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="63"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="64"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="67"/>
     </row>
     <row r="58" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B58" s="27" t="s">
@@ -2085,51 +2085,51 @@
     </row>
     <row r="60" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="61" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="37" t="s">
+      <c r="B61" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="39"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="41"/>
     </row>
     <row r="62" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="45" t="s">
+      <c r="B62" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="C62" s="46"/>
-      <c r="D62" s="46"/>
-      <c r="E62" s="47"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="49"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="66" t="s">
+      <c r="B63" s="59" t="s">
         <v>21</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="53" t="s">
+      <c r="D63" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="E63" s="54"/>
+      <c r="E63" s="62"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="68"/>
+      <c r="B64" s="60"/>
       <c r="C64" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D64" s="53" t="s">
+      <c r="D64" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="E64" s="54"/>
+      <c r="E64" s="62"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="69"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="71"/>
+      <c r="B65" s="63"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="65"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="49" t="s">
+      <c r="B66" s="51" t="s">
         <v>3</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -2143,7 +2143,7 @@
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="49"/>
+      <c r="B67" s="51"/>
       <c r="C67" s="2" t="s">
         <v>23</v>
       </c>
@@ -2155,7 +2155,7 @@
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="49"/>
+      <c r="B68" s="51"/>
       <c r="C68" s="2" t="s">
         <v>76</v>
       </c>
@@ -2167,7 +2167,7 @@
       </c>
     </row>
     <row r="69" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B69" s="49"/>
+      <c r="B69" s="51"/>
       <c r="C69" s="7" t="s">
         <v>25</v>
       </c>
@@ -2179,13 +2179,13 @@
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" s="72"/>
-      <c r="C70" s="73"/>
-      <c r="D70" s="73"/>
-      <c r="E70" s="74"/>
+      <c r="B70" s="55"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="57"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="49" t="s">
+      <c r="B71" s="51" t="s">
         <v>79</v>
       </c>
       <c r="C71" s="10" t="s">
@@ -2212,51 +2212,51 @@
     </row>
     <row r="74" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="75" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B75" s="37" t="s">
+      <c r="B75" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C75" s="38"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="39"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="41"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B76" s="45" t="s">
+      <c r="B76" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="C76" s="46"/>
-      <c r="D76" s="46"/>
-      <c r="E76" s="47"/>
+      <c r="C76" s="48"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="49"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B77" s="66" t="s">
+      <c r="B77" s="59" t="s">
         <v>21</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D77" s="53" t="s">
+      <c r="D77" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="E77" s="54"/>
+      <c r="E77" s="62"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B78" s="68"/>
+      <c r="B78" s="60"/>
       <c r="C78" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D78" s="53" t="s">
+      <c r="D78" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="E78" s="54"/>
+      <c r="E78" s="62"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B79" s="69"/>
-      <c r="C79" s="70"/>
-      <c r="D79" s="70"/>
-      <c r="E79" s="71"/>
+      <c r="B79" s="63"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="65"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B80" s="49" t="s">
+      <c r="B80" s="51" t="s">
         <v>3</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -2270,7 +2270,7 @@
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B81" s="49"/>
+      <c r="B81" s="51"/>
       <c r="C81" s="2" t="s">
         <v>83</v>
       </c>
@@ -2282,13 +2282,13 @@
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B82" s="72"/>
-      <c r="C82" s="73"/>
-      <c r="D82" s="73"/>
-      <c r="E82" s="74"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="56"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="57"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="49" t="s">
+      <c r="B83" s="51" t="s">
         <v>79</v>
       </c>
       <c r="C83" s="10" t="s">
@@ -2315,34 +2315,18 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:E20"/>
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="B42:E42"/>
     <mergeCell ref="B46:E46"/>
@@ -2359,18 +2343,34 @@
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="B79:E79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2385,8 +2385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB3E66F-D173-45C2-B2C6-24F96CBE92EE}">
   <dimension ref="B1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2398,36 +2398,36 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="65"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="25" t="s">
@@ -2444,13 +2444,13 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="61"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="62"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="74"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="51" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -2464,7 +2464,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="B9" s="49"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="10" t="s">
         <v>93</v>
       </c>
@@ -2477,59 +2477,59 @@
     </row>
     <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
+      <c r="B13" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="71"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="65"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="55"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="57"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="71"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="61"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="62"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="74"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="51" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -2539,23 +2539,28 @@
         <v>6</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="49"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C4:E4"/>
@@ -2563,11 +2568,6 @@
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B17:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/数据融合中心 数据服务API(更新中).xlsx
+++ b/doc/数据融合中心 数据服务API(更新中).xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5049A9D7-6ED2-4823-9525-07CD27E1180D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A976D5-B6AC-4339-97A0-8EB931CABDEC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="7155" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="7155" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="权限" sheetId="1" r:id="rId1"/>
     <sheet name="菜单" sheetId="2" r:id="rId2"/>
     <sheet name="实体" sheetId="4" r:id="rId3"/>
     <sheet name="枚举" sheetId="5" r:id="rId4"/>
-    <sheet name="列表模板数据" sheetId="6" r:id="rId5"/>
+    <sheet name="数据导出" sheetId="7" r:id="rId5"/>
+    <sheet name="列表模板数据" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="169">
   <si>
     <t>/api/auth/token</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,10 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/entity/list/{menuId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>路径参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,10 +271,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/entity/dtmpl/{menuId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>entity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -286,10 +279,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/entity/detail/{menuId}/{code}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,10 +315,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/entity/update/{menuId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>唯一编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -370,10 +355,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/entity/remove/{menuId}/{code}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>要移除的实体的code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -386,10 +367,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/entity/selections/{menuId}/{stmplId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>stmplId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -413,10 +390,6 @@
     <t>返回数据</t>
   </si>
   <si>
-    <t>/api/entity/load_entities/{menuId}/{stmplId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>加载选择的实体的数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -498,6 +471,306 @@
   </si>
   <si>
     <t>/api/field/cas_ops/{optGroupId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前正在执行的导出工作的进程，如果有该数据，那么加载实体列表时，需要调用导出进度轮询接口，显示之前执行的导出工作进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exportProgress</t>
+  </si>
+  <si>
+    <t>actions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组内的元素代表一个操作按钮，元素的title即按钮显示名称，multiple有3个值：0代表按钮只能是单选；1代表按钮是多选；2代表按钮操作是事务型的多选操作。当用户在列表页选择了多条实体，那么multiple为0的按钮全部disabled。多选操作需要将页面中选中的实体code和按钮的id作为参数调用操作接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hideCreateButton
+hideDeleteButton
+hideExportButton
+hideImportButton
+hideQueryButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面默认按钮是否被隐藏的参数。如果值为1，说明对应的按钮需要被隐藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/export/start/{menuId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数(JSON)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rangeStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rangeEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>withDetail</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否在同时导出列表中实体的详情数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出的范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"current"或"all"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出的范围，为current时会按照传递的范围参数来导出。为all时会把所有的数据都导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scope为"all"时可用，全局导出的起始索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scope为"all"时可用，全局导出的终止索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/export/status/{uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于获得导出状态的uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功开始执行导出操作之后，返回数据里的uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>completed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>breaked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusMsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messageSequeue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">beginIndex:第一条消息的索引
+endIndex:最后一条消息的索引
+messages:对象数组。当前返回的消息。数组内元素的字段有：text：内容；type:消息类型，可选值包括"INFO"/"ERROR"/"WARN"/"SUC"
+        </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前最新的状态消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前执行的进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要执行的进度总额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已经完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否被中断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载导出文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/export/download/{uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出状态为completed时，导出的uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得列表导出状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始执行列表导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/export/export_detail/{menuId}/{code}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出实体详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在实体详情页的menuId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>historyId</t>
+  </si>
+  <si>
+    <t>如果要导出历史数据，需要传入的历史id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值为suc时，成功生成导出文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于下载导出文件的uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得列表导出信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/export/work/{uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经开始执行的列表导出任务的uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menuTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>withDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出任务所执行的菜单id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出任务所执行的菜单标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出的实体起始索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出的实体终止索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否同时导出实体的详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由两部分组成。
+分页：
+         pageSize和pageNo，在scope为"current"时可用
+条件：
+         根据列表模板中的条件Criterias，需要提交的筛选条件值。对象内的字段名格式为“criteria_{criteriaId}”，值为字符串或者字符串数组，即条件的查询值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/entity/curd/list/{menuId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/entity/curd/dtmpl/{menuId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/entity/curd/detail/{menuId}/{code}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/entity/curd/update/{menuId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/entity/curd/selections/{menuId}/{stmplId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/entity/curd/remove/{menuId}/{code}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/entity/curd/load_entities/{menuId}/{stmplId}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,15 +876,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -854,12 +1133,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -962,8 +1341,59 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1013,32 +1443,53 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1046,41 +1497,101 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1380,57 +1891,57 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="G3" s="46" t="s">
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
+      <c r="G3" s="63" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="62" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="G4" s="46"/>
+      <c r="E4" s="67"/>
+      <c r="G4" s="63"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="45"/>
+      <c r="B5" s="62"/>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="G5" s="46"/>
+      <c r="E5" s="67"/>
+      <c r="G5" s="63"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
-      <c r="G6" s="46"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="61"/>
+      <c r="G6" s="63"/>
     </row>
     <row r="7" spans="2:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="62" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1442,10 +1953,10 @@
       <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="46"/>
+      <c r="G7" s="63"/>
     </row>
     <row r="8" spans="2:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="B8" s="45"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1455,10 +1966,10 @@
       <c r="E8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="46"/>
+      <c r="G8" s="63"/>
     </row>
     <row r="9" spans="2:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="45"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
@@ -1468,7 +1979,7 @@
       <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="46"/>
+      <c r="G9" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1491,7 +2002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C068B2A5-9DCC-455B-8140-E85ECD702CAC}">
   <dimension ref="B1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1504,36 +2015,36 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="51"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="52"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="69"/>
     </row>
     <row r="6" spans="2:5" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
@@ -1563,10 +2074,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2841EEAF-8B01-4C4B-B25A-06D60427D9CE}">
-  <dimension ref="B1:E84"/>
+  <dimension ref="B1:E87"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1579,798 +2090,822 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
     </row>
     <row r="3" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
+      <c r="B3" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="73"/>
+    </row>
+    <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="74"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="76"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="68"/>
+      <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="62"/>
-    </row>
-    <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="69"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="68"/>
+      <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="51"/>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="18" t="s">
+      <c r="D8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="80"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="97"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="39" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="51"/>
-      <c r="C8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="19" t="s">
+      <c r="D10" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="73"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="74"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="s">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="82"/>
+      <c r="C11" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="20" t="s">
+      <c r="D11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="105" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="51"/>
-      <c r="C11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>40</v>
-      </c>
-    </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="51"/>
-      <c r="C12" s="10" t="s">
-        <v>34</v>
+      <c r="B12" s="82"/>
+      <c r="C12" s="98" t="s">
+        <v>33</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="82"/>
+      <c r="C13" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="51"/>
-      <c r="C13" s="2" t="s">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="94"/>
+      <c r="C14" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="20" t="s">
+      <c r="D14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="58"/>
-      <c r="C14" s="22" t="s">
+    <row r="15" spans="2:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B15" s="94"/>
+      <c r="C15" s="99" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="93" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="100" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="94"/>
+      <c r="C16" s="99" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="93" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="100" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="72" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="95"/>
+      <c r="C17" s="101" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="102" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="103" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="37"/>
+    </row>
+    <row r="19" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="110"/>
+    </row>
+    <row r="21" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="111" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="113"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="73"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="51"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="53"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="78"/>
+      <c r="E24" s="79"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="54"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="55"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="E26" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="77"/>
+      <c r="C27" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
+    </row>
+    <row r="29" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="109"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="110"/>
+    </row>
+    <row r="31" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="111" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="113"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="73"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="86"/>
+      <c r="C33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="73"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="51"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="53"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="62"/>
+      <c r="E35" s="69"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="54"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="55"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="68"/>
+      <c r="C38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="77"/>
+      <c r="C39" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E39" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="108" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="109"/>
+      <c r="D42" s="109"/>
+      <c r="E42" s="110"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="111" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" s="112"/>
+      <c r="D43" s="112"/>
+      <c r="E43" s="113"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="72" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E15" s="37"/>
-    </row>
-    <row r="16" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
-    </row>
-    <row r="18" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="17" t="s">
+      <c r="E44" s="73"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="51"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="53"/>
+    </row>
+    <row r="46" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B46" s="85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B47" s="87"/>
+      <c r="C47" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="86"/>
+      <c r="C48" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="50"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="49"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="77"/>
+      <c r="C51" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="108" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="109"/>
+      <c r="D54" s="109"/>
+      <c r="E54" s="110"/>
+    </row>
+    <row r="55" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="111" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" s="112"/>
+      <c r="D55" s="112"/>
+      <c r="E55" s="113"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="62"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="69"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="71"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="25" t="s">
+      <c r="D56" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="E56" s="73"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="86"/>
+      <c r="C57" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="E57" s="73"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="46"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="48"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C59" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="75"/>
-      <c r="E21" s="76"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="73"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="74"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="51" t="s">
+      <c r="D59" s="60"/>
+      <c r="E59" s="83"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="50"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="49"/>
+    </row>
+    <row r="61" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="58"/>
-      <c r="C24" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="41"/>
-    </row>
-    <row r="28" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="49"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="59" t="s">
+      <c r="C61" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="108" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" s="109"/>
+      <c r="D64" s="109"/>
+      <c r="E64" s="110"/>
+    </row>
+    <row r="65" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="111" t="s">
+        <v>166</v>
+      </c>
+      <c r="C65" s="112"/>
+      <c r="D65" s="112"/>
+      <c r="E65" s="113"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="62"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="66"/>
-      <c r="C30" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="62"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="69"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="71"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="25" t="s">
+      <c r="D66" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="E66" s="73"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="87"/>
+      <c r="C67" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="73"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="46"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="48"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="52"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="73"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="74"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="51"/>
-      <c r="C35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="58"/>
-      <c r="C36" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="41"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="49"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="62"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="69"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="71"/>
-    </row>
-    <row r="43" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="E43" s="33" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B44" s="60"/>
-      <c r="C44" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E44" s="33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45" s="66"/>
-      <c r="C45" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="68"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="67"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="58"/>
-      <c r="C48" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="E48" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="41"/>
-    </row>
-    <row r="52" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="49"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="E53" s="62"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="66"/>
-      <c r="C54" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D54" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="E54" s="62"/>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" s="63"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="65"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="43"/>
-      <c r="E56" s="67"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="68"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="67"/>
-    </row>
-    <row r="58" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E58" s="35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="41"/>
-    </row>
-    <row r="62" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="C62" s="48"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="49"/>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D63" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="E63" s="62"/>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="60"/>
-      <c r="C64" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D64" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="E64" s="62"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="63"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="65"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E66" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="51"/>
-      <c r="C67" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E67" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="51"/>
-      <c r="C68" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E68" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B69" s="51"/>
-      <c r="C69" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E69" s="19" t="s">
+      <c r="E69" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="68"/>
+      <c r="C70" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="68"/>
+      <c r="C71" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B72" s="68"/>
+      <c r="C72" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B73" s="42"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="44"/>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B74" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="77"/>
+      <c r="C75" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D75" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E75" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B78" s="108" t="s">
+        <v>74</v>
+      </c>
+      <c r="C78" s="109"/>
+      <c r="D78" s="109"/>
+      <c r="E78" s="110"/>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B79" s="111" t="s">
+        <v>168</v>
+      </c>
+      <c r="C79" s="112"/>
+      <c r="D79" s="112"/>
+      <c r="E79" s="113"/>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B80" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="E80" s="73"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="87"/>
+      <c r="C81" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="73"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B82" s="46"/>
+      <c r="C82" s="47"/>
+      <c r="D82" s="47"/>
+      <c r="E82" s="48"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B83" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E83" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B84" s="68"/>
+      <c r="C84" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B85" s="42"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="44"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B86" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" s="55"/>
-      <c r="C70" s="56"/>
-      <c r="D70" s="56"/>
-      <c r="E70" s="57"/>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="51" t="s">
+    <row r="87" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="77"/>
+      <c r="C87" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D87" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="C71" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E71" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="58"/>
-      <c r="C72" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D72" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E72" s="24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B75" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C75" s="40"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="41"/>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B76" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="C76" s="48"/>
-      <c r="D76" s="48"/>
-      <c r="E76" s="49"/>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B77" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D77" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="E77" s="62"/>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B78" s="60"/>
-      <c r="C78" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D78" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="E78" s="62"/>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B79" s="63"/>
-      <c r="C79" s="64"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="65"/>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B80" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E80" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B81" s="51"/>
-      <c r="C81" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E81" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B82" s="55"/>
-      <c r="C82" s="56"/>
-      <c r="D82" s="56"/>
-      <c r="E82" s="57"/>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E83" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="58"/>
-      <c r="C84" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D84" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E84" s="36" t="s">
-        <v>86</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="44">
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="C35:E35"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B10:B17"/>
     <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2385,8 +2920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB3E66F-D173-45C2-B2C6-24F96CBE92EE}">
   <dimension ref="B1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:E13"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2398,138 +2933,138 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
+      <c r="B3" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="65"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="89"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="69"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="76"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="73"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="74"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="81"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="68" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="B9" s="51"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="10" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B12" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41"/>
+      <c r="B12" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
+      <c r="B13" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="64"/>
-      <c r="E14" s="65"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="89"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="69"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="76"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="73"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="74"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="81"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="68" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -2539,28 +3074,23 @@
         <v>6</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="51"/>
+      <c r="B19" s="68"/>
       <c r="C19" s="10" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B17:E17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C4:E4"/>
@@ -2568,6 +3098,11 @@
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B17:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2575,6 +3110,576 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F12133-6522-4FD6-BDD7-D45B2101BAE5}">
+  <dimension ref="B1:E56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="39.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B2" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="73"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="74"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="76"/>
+    </row>
+    <row r="6" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B6" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="107" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="68"/>
+      <c r="C7" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="68"/>
+      <c r="C8" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="68"/>
+      <c r="C9" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="B10" s="68"/>
+      <c r="C10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="106" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="41"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B15" s="108" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="110"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="111" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="113"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="106" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="114" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="54"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="55"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="68"/>
+      <c r="C20" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="85"/>
+      <c r="C21" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="115" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="92" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="85"/>
+      <c r="C22" s="91" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="115" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="92" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="85"/>
+      <c r="C23" s="91" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="115" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="92" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="B24" s="85"/>
+      <c r="C24" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="115" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="92" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="77"/>
+      <c r="C25" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="117"/>
+    </row>
+    <row r="27" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="117"/>
+    </row>
+    <row r="28" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B28" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="58"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="66"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="118" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="119"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="86"/>
+      <c r="C31" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="120" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" s="121"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="74"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="76"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="80"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="81"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="68"/>
+      <c r="C36" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="117"/>
+    </row>
+    <row r="38" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="117"/>
+    </row>
+    <row r="39" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B39" s="108" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="109"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="110"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="111" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="112"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="113"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="106" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="114" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="54"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="55"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" s="60"/>
+      <c r="E43" s="83"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+    </row>
+    <row r="45" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B46" s="108" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" s="109"/>
+      <c r="D46" s="109"/>
+      <c r="E46" s="110"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="111" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47" s="112"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="113"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" s="106" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" s="114" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="54"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="55"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="68"/>
+      <c r="C51" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="85"/>
+      <c r="C52" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="92"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="85"/>
+      <c r="C53" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="115" t="s">
+        <v>115</v>
+      </c>
+      <c r="E53" s="92" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="85"/>
+      <c r="C54" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="115" t="s">
+        <v>117</v>
+      </c>
+      <c r="E54" s="92" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="85"/>
+      <c r="C55" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="115" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" s="92" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="77"/>
+      <c r="C56" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D56" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:B10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265F0A73-6FFD-44E0-8248-4B560CEE8824}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/doc/数据融合中心 数据服务API(更新中).xlsx
+++ b/doc/数据融合中心 数据服务API(更新中).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A976D5-B6AC-4339-97A0-8EB931CABDEC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F8C93D-07A4-495A-839F-71241A2F426F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="7155" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1238,7 +1238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1592,6 +1592,24 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2076,8 +2094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2841EEAF-8B01-4C4B-B25A-06D60427D9CE}">
   <dimension ref="B1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2098,12 +2116,12 @@
       <c r="E2" s="58"/>
     </row>
     <row r="3" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="125" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="127"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
@@ -2278,12 +2296,12 @@
       <c r="E20" s="110"/>
     </row>
     <row r="21" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="111" t="s">
+      <c r="B21" s="122" t="s">
         <v>163</v>
       </c>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="113"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="124"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="17" t="s">
@@ -2361,12 +2379,12 @@
       <c r="E30" s="110"/>
     </row>
     <row r="31" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="111" t="s">
+      <c r="B31" s="122" t="s">
         <v>164</v>
       </c>
-      <c r="C31" s="112"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="113"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="124"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="85" t="s">
@@ -2460,12 +2478,12 @@
       <c r="E42" s="110"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="111" t="s">
+      <c r="B43" s="122" t="s">
         <v>165</v>
       </c>
-      <c r="C43" s="112"/>
-      <c r="D43" s="112"/>
-      <c r="E43" s="113"/>
+      <c r="C43" s="123"/>
+      <c r="D43" s="123"/>
+      <c r="E43" s="124"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="30" t="s">
@@ -2565,12 +2583,12 @@
       <c r="E54" s="110"/>
     </row>
     <row r="55" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="111" t="s">
+      <c r="B55" s="122" t="s">
         <v>167</v>
       </c>
-      <c r="C55" s="112"/>
-      <c r="D55" s="112"/>
-      <c r="E55" s="113"/>
+      <c r="C55" s="123"/>
+      <c r="D55" s="123"/>
+      <c r="E55" s="124"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="85" t="s">
@@ -2640,12 +2658,12 @@
       <c r="E64" s="110"/>
     </row>
     <row r="65" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="111" t="s">
+      <c r="B65" s="122" t="s">
         <v>166</v>
       </c>
-      <c r="C65" s="112"/>
-      <c r="D65" s="112"/>
-      <c r="E65" s="113"/>
+      <c r="C65" s="123"/>
+      <c r="D65" s="123"/>
+      <c r="E65" s="124"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="85" t="s">
@@ -2767,12 +2785,12 @@
       <c r="E78" s="110"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B79" s="111" t="s">
+      <c r="B79" s="122" t="s">
         <v>168</v>
       </c>
-      <c r="C79" s="112"/>
-      <c r="D79" s="112"/>
-      <c r="E79" s="113"/>
+      <c r="C79" s="123"/>
+      <c r="D79" s="123"/>
+      <c r="E79" s="124"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" s="85" t="s">

--- a/doc/数据融合中心 数据服务API(更新中).xlsx
+++ b/doc/数据融合中心 数据服务API(更新中).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F8C93D-07A4-495A-839F-71241A2F426F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2BF9A4-2005-4A71-AE61-8CB13C515C7D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="7155" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,9 @@
     <sheet name="实体" sheetId="4" r:id="rId3"/>
     <sheet name="枚举" sheetId="5" r:id="rId4"/>
     <sheet name="数据导出" sheetId="7" r:id="rId5"/>
-    <sheet name="列表模板数据" sheetId="6" r:id="rId6"/>
+    <sheet name="数据导入" sheetId="8" r:id="rId6"/>
+    <sheet name="列表模板数据" sheetId="6" r:id="rId7"/>
+    <sheet name="Temp" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="229">
   <si>
     <t>/api/auth/token</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -513,10 +515,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/export/start/{menuId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参数(JSON)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -569,10 +567,6 @@
   </si>
   <si>
     <t>scope为"all"时可用，全局导出的终止索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/export/status/{uuid}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -643,10 +637,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/export/download/{uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文件流</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -663,10 +653,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/export/export_detail/{menuId}/{code}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>导出实体详情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -695,10 +681,6 @@
   </si>
   <si>
     <t>获得列表导出信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/export/work/{uuid}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -773,12 +755,272 @@
     <t>/api/entity/curd/load_entities/{menuId}/{stmplId}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>interrupted</t>
+  </si>
+  <si>
+    <t>interrupted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当传入参数为true时，中断导出任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/import</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始导入任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除实体(多选）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要删除的实体的code，用逗号分隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/entity/curd/do_action/{menuId}/{actionId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要执行操作的实体的code，用逗号分隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作状态，为"suc"时操作成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status为suc时，用于查询导入进程的唯一编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入状态的消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入状态，"suc"成功，"error"为失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看导入状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入任务成功开启之后返回的uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msgIndex</t>
+  </si>
+  <si>
+    <t>当传入值为true时，会中断尚未完成的导入任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入任务的反馈信息起始索引，用于排除已经获取过的反馈信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastInterval</t>
+  </si>
+  <si>
+    <t>上一次访问的时间戳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新的一条信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看所有可用的导入模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmpls</t>
+  </si>
+  <si>
+    <t>导入模板列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得模板数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmplId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmpl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数（JSON）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fields</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是修改已有的模板，那么需要传入该值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入模板的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个对象数组，数组内的元素为导入字段的参数。对象元素的字段包括：
+id：如果是对已经存在的导入模板中的字段进行修改，那么需要传入；
+fieldId：字段的唯一标志，从字段选择器中获取；
+compositeId：字段所在的composite的唯一标识，从字段选择器中获取；
+fieldIndex：字段的索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回的模板uuid，用于下载导入模板文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存后的模板标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载导入模板文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存导入模板后返回的uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/entity/export/download/{uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/entity/export/start/{menuId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/entity/export/status/{uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/entity/export/export_detail/{menuId}/{code}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/entity/export/work/{uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/entity/import/start/{menuId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/entity/import/status/{uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/entity/import/tmpls/{menuId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/entity/import/tmpl/{menuId}/{tmplId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/entity/import/save_tmpl/{menuId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/entity/import/download_tmpl/{uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传入参数的uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -875,6 +1117,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -890,7 +1149,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1233,12 +1492,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1395,6 +1726,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1443,12 +1867,57 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1458,108 +1927,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1569,18 +1972,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1593,23 +1984,238 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1909,57 +2515,57 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
-      <c r="G3" s="63" t="s">
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="97"/>
+      <c r="G3" s="94" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="93" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="G4" s="63"/>
+      <c r="E4" s="98"/>
+      <c r="G4" s="94"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="62"/>
+      <c r="B5" s="93"/>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="G5" s="63"/>
+      <c r="E5" s="98"/>
+      <c r="G5" s="94"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="59"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
-      <c r="G6" s="63"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="92"/>
+      <c r="G6" s="94"/>
     </row>
     <row r="7" spans="2:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="93" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1971,10 +2577,10 @@
       <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="63"/>
+      <c r="G7" s="94"/>
     </row>
     <row r="8" spans="2:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="B8" s="62"/>
+      <c r="B8" s="93"/>
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1984,10 +2590,10 @@
       <c r="E8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="63"/>
+      <c r="G8" s="94"/>
     </row>
     <row r="9" spans="2:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="62"/>
+      <c r="B9" s="93"/>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
@@ -1997,7 +2603,7 @@
       <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="63"/>
+      <c r="G9" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2033,36 +2639,36 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="97"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="102"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="68"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="69"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="100"/>
     </row>
     <row r="6" spans="2:5" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
@@ -2092,10 +2698,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2841EEAF-8B01-4C4B-B25A-06D60427D9CE}">
-  <dimension ref="B1:E87"/>
+  <dimension ref="B1:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103:E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2108,20 +2714,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
     </row>
     <row r="3" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="125" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="127"/>
+      <c r="B3" s="117" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="119"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
@@ -2130,19 +2736,19 @@
       <c r="C4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="73"/>
+      <c r="E4" s="113"/>
     </row>
     <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="74"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="76"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="122"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="99" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2156,7 +2762,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="68"/>
+      <c r="B7" s="99"/>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
@@ -2168,7 +2774,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="68"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
@@ -2180,19 +2786,19 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="80"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="97"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="130"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="125" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="79" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="20" t="s">
@@ -2200,20 +2806,20 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="82"/>
-      <c r="C11" s="98" t="s">
+      <c r="B11" s="125"/>
+      <c r="C11" s="73" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="105" t="s">
+      <c r="E11" s="80" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="82"/>
-      <c r="C12" s="98" t="s">
+      <c r="B12" s="125"/>
+      <c r="C12" s="73" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="11" t="s">
@@ -2224,7 +2830,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="82"/>
+      <c r="B13" s="125"/>
       <c r="C13" s="41" t="s">
         <v>34</v>
       </c>
@@ -2236,7 +2842,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="94"/>
+      <c r="B14" s="126"/>
       <c r="C14" s="41" t="s">
         <v>35</v>
       </c>
@@ -2248,38 +2854,38 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B15" s="94"/>
-      <c r="C15" s="99" t="s">
+      <c r="B15" s="126"/>
+      <c r="C15" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="93" t="s">
+      <c r="D15" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="100" t="s">
+      <c r="E15" s="75" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="94"/>
-      <c r="C16" s="99" t="s">
+      <c r="B16" s="126"/>
+      <c r="C16" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="93" t="s">
+      <c r="D16" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="100" t="s">
+      <c r="E16" s="75" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="72" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="95"/>
-      <c r="C17" s="101" t="s">
+      <c r="B17" s="127"/>
+      <c r="C17" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="102" t="s">
+      <c r="D17" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="103" t="s">
+      <c r="E17" s="78" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2288,20 +2894,20 @@
     </row>
     <row r="19" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="108" t="s">
+      <c r="B20" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="110"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="105"/>
     </row>
     <row r="21" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="122" t="s">
-        <v>163</v>
-      </c>
-      <c r="C21" s="123"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="124"/>
+      <c r="B21" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="108"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="17" t="s">
@@ -2310,10 +2916,10 @@
       <c r="C22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="72" t="s">
+      <c r="D22" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="73"/>
+      <c r="E22" s="113"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="51"/>
@@ -2325,11 +2931,11 @@
       <c r="B24" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="78" t="s">
+      <c r="C24" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="78"/>
-      <c r="E24" s="79"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="124"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="54"/>
@@ -2338,7 +2944,7 @@
       <c r="E25" s="55"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="99" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -2352,7 +2958,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="77"/>
+      <c r="B27" s="109"/>
       <c r="C27" s="26" t="s">
         <v>44</v>
       </c>
@@ -2371,42 +2977,42 @@
     </row>
     <row r="29" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="108" t="s">
+      <c r="B30" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="109"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="110"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="105"/>
     </row>
     <row r="31" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="122" t="s">
-        <v>164</v>
-      </c>
-      <c r="C31" s="123"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="124"/>
+      <c r="B31" s="106" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="107"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="108"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="85" t="s">
+      <c r="B32" s="110" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="72" t="s">
+      <c r="D32" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="73"/>
+      <c r="E32" s="113"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="86"/>
+      <c r="B33" s="114"/>
       <c r="C33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="84" t="s">
+      <c r="D33" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="73"/>
+      <c r="E33" s="113"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="51"/>
@@ -2418,11 +3024,11 @@
       <c r="B35" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="62"/>
-      <c r="E35" s="69"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="100"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="54"/>
@@ -2431,7 +3037,7 @@
       <c r="E36" s="55"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="68" t="s">
+      <c r="B37" s="99" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2445,7 +3051,7 @@
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="68"/>
+      <c r="B38" s="99"/>
       <c r="C38" s="2" t="s">
         <v>44</v>
       </c>
@@ -2457,7 +3063,7 @@
       </c>
     </row>
     <row r="39" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="77"/>
+      <c r="B39" s="109"/>
       <c r="C39" s="22" t="s">
         <v>50</v>
       </c>
@@ -2470,20 +3076,20 @@
     </row>
     <row r="41" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="108" t="s">
+      <c r="B42" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="109"/>
-      <c r="D42" s="109"/>
-      <c r="E42" s="110"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="105"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="122" t="s">
-        <v>165</v>
-      </c>
-      <c r="C43" s="123"/>
-      <c r="D43" s="123"/>
-      <c r="E43" s="124"/>
+      <c r="B43" s="106" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="107"/>
+      <c r="D43" s="107"/>
+      <c r="E43" s="108"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="30" t="s">
@@ -2492,10 +3098,10 @@
       <c r="C44" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="72" t="s">
+      <c r="D44" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="E44" s="73"/>
+      <c r="E44" s="113"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="51"/>
@@ -2504,7 +3110,7 @@
       <c r="E45" s="53"/>
     </row>
     <row r="46" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B46" s="85" t="s">
+      <c r="B46" s="110" t="s">
         <v>3</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -2518,7 +3124,7 @@
       </c>
     </row>
     <row r="47" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B47" s="87"/>
+      <c r="B47" s="111"/>
       <c r="C47" s="2" t="s">
         <v>57</v>
       </c>
@@ -2530,7 +3136,7 @@
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="86"/>
+      <c r="B48" s="114"/>
       <c r="C48" s="2" t="s">
         <v>59</v>
       </c>
@@ -2548,7 +3154,7 @@
       <c r="E49" s="49"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="68" t="s">
+      <c r="B50" s="99" t="s">
         <v>7</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -2562,7 +3168,7 @@
       </c>
     </row>
     <row r="51" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="77"/>
+      <c r="B51" s="109"/>
       <c r="C51" s="22" t="s">
         <v>46</v>
       </c>
@@ -2575,42 +3181,42 @@
     </row>
     <row r="53" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="108" t="s">
+      <c r="B54" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="109"/>
-      <c r="D54" s="109"/>
-      <c r="E54" s="110"/>
+      <c r="C54" s="104"/>
+      <c r="D54" s="104"/>
+      <c r="E54" s="105"/>
     </row>
     <row r="55" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="122" t="s">
-        <v>167</v>
-      </c>
-      <c r="C55" s="123"/>
-      <c r="D55" s="123"/>
-      <c r="E55" s="124"/>
+      <c r="B55" s="106" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="107"/>
+      <c r="D55" s="107"/>
+      <c r="E55" s="108"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="85" t="s">
+      <c r="B56" s="110" t="s">
         <v>20</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="72" t="s">
+      <c r="D56" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="E56" s="73"/>
+      <c r="E56" s="113"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="86"/>
+      <c r="B57" s="114"/>
       <c r="C57" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="72" t="s">
+      <c r="D57" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="E57" s="73"/>
+      <c r="E57" s="113"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="46"/>
@@ -2622,11 +3228,11 @@
       <c r="B59" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="59" t="s">
+      <c r="C59" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="60"/>
-      <c r="E59" s="83"/>
+      <c r="D59" s="91"/>
+      <c r="E59" s="115"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="50"/>
@@ -2648,260 +3254,422 @@
         <v>66</v>
       </c>
     </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="85"/>
+      <c r="E62" s="150"/>
+    </row>
     <row r="63" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="108" t="s">
+    <row r="64" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="151" t="s">
+        <v>172</v>
+      </c>
+      <c r="C64" s="152"/>
+      <c r="D64" s="152"/>
+      <c r="E64" s="153"/>
+    </row>
+    <row r="65" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="117" t="s">
+        <v>162</v>
+      </c>
+      <c r="C65" s="118"/>
+      <c r="D65" s="118"/>
+      <c r="E65" s="119"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" s="155" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="156" t="s">
+        <v>43</v>
+      </c>
+      <c r="E66" s="157"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="178"/>
+      <c r="C67" s="155"/>
+      <c r="D67" s="155"/>
+      <c r="E67" s="179"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="164" t="s">
+        <v>173</v>
+      </c>
+      <c r="D68" s="165" t="s">
+        <v>174</v>
+      </c>
+      <c r="E68" s="166"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69" s="74"/>
+      <c r="C69" s="164"/>
+      <c r="D69" s="164"/>
+      <c r="E69" s="180"/>
+    </row>
+    <row r="70" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="175" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="176" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="177" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="85"/>
+      <c r="E71" s="150"/>
+    </row>
+    <row r="72" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="109"/>
-      <c r="D64" s="109"/>
-      <c r="E64" s="110"/>
-    </row>
-    <row r="65" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="122" t="s">
-        <v>166</v>
-      </c>
-      <c r="C65" s="123"/>
-      <c r="D65" s="123"/>
-      <c r="E65" s="124"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="85" t="s">
+      <c r="C73" s="104"/>
+      <c r="D73" s="104"/>
+      <c r="E73" s="105"/>
+    </row>
+    <row r="74" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="106" t="s">
+        <v>161</v>
+      </c>
+      <c r="C74" s="107"/>
+      <c r="D74" s="107"/>
+      <c r="E74" s="108"/>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B75" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C75" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D66" s="72" t="s">
+      <c r="D75" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="E66" s="73"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="87"/>
-      <c r="C67" s="6" t="s">
+      <c r="E75" s="113"/>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B76" s="111"/>
+      <c r="C76" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D67" s="72" t="s">
+      <c r="D76" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="E67" s="73"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="46"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="48"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B69" s="68" t="s">
+      <c r="E76" s="113"/>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B77" s="46"/>
+      <c r="C77" s="47"/>
+      <c r="D77" s="47"/>
+      <c r="E77" s="48"/>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B78" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D78" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E69" s="18" t="s">
+      <c r="E78" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" s="68"/>
-      <c r="C70" s="2" t="s">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B79" s="99"/>
+      <c r="C79" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D79" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E70" s="18" t="s">
+      <c r="E79" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="68"/>
-      <c r="C71" s="2" t="s">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B80" s="99"/>
+      <c r="C80" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D80" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="18" t="s">
+      <c r="E80" s="18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B72" s="68"/>
-      <c r="C72" s="7" t="s">
+    <row r="81" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B81" s="99"/>
+      <c r="C81" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D81" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E72" s="19" t="s">
+      <c r="E81" s="19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B73" s="42"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="44"/>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B74" s="68" t="s">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B82" s="42"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="44"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B83" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D83" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="21" t="s">
+      <c r="E83" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="77"/>
-      <c r="C75" s="22" t="s">
+    <row r="84" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="109"/>
+      <c r="C84" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D75" s="23" t="s">
+      <c r="D84" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E75" s="24" t="s">
+      <c r="E84" s="24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B78" s="108" t="s">
+    <row r="86" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B87" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="C78" s="109"/>
-      <c r="D78" s="109"/>
-      <c r="E78" s="110"/>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B79" s="122" t="s">
-        <v>168</v>
-      </c>
-      <c r="C79" s="123"/>
-      <c r="D79" s="123"/>
-      <c r="E79" s="124"/>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B80" s="85" t="s">
+      <c r="C87" s="104"/>
+      <c r="D87" s="104"/>
+      <c r="E87" s="105"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B88" s="106" t="s">
+        <v>163</v>
+      </c>
+      <c r="C88" s="107"/>
+      <c r="D88" s="107"/>
+      <c r="E88" s="108"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B89" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C89" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D80" s="72" t="s">
+      <c r="D89" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="E80" s="73"/>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B81" s="87"/>
-      <c r="C81" s="6" t="s">
+      <c r="E89" s="113"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B90" s="111"/>
+      <c r="C90" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D81" s="72" t="s">
+      <c r="D90" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="E81" s="73"/>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B82" s="46"/>
-      <c r="C82" s="47"/>
-      <c r="D82" s="47"/>
-      <c r="E82" s="48"/>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="68" t="s">
+      <c r="E90" s="113"/>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B91" s="46"/>
+      <c r="C91" s="47"/>
+      <c r="D91" s="47"/>
+      <c r="E91" s="48"/>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B92" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C92" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D92" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E83" s="18" t="s">
+      <c r="E92" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B84" s="68"/>
-      <c r="C84" s="2" t="s">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B93" s="99"/>
+      <c r="C93" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D93" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E84" s="18" t="s">
+      <c r="E93" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B85" s="42"/>
-      <c r="C85" s="43"/>
-      <c r="D85" s="43"/>
-      <c r="E85" s="44"/>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B86" s="68" t="s">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B94" s="42"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="44"/>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B95" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C95" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D95" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E86" s="18" t="s">
+      <c r="E95" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="77"/>
-      <c r="C87" s="22" t="s">
+    <row r="96" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="109"/>
+      <c r="C96" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D87" s="23" t="s">
+      <c r="D96" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E87" s="36" t="s">
+      <c r="E96" s="36" t="s">
         <v>79</v>
       </c>
     </row>
+    <row r="98" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B99" s="151" t="s">
+        <v>175</v>
+      </c>
+      <c r="C99" s="152"/>
+      <c r="D99" s="152"/>
+      <c r="E99" s="153"/>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B100" s="117" t="s">
+        <v>176</v>
+      </c>
+      <c r="C100" s="118"/>
+      <c r="D100" s="118"/>
+      <c r="E100" s="119"/>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B101" s="154" t="s">
+        <v>20</v>
+      </c>
+      <c r="C101" s="155" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="156" t="s">
+        <v>43</v>
+      </c>
+      <c r="E101" s="157"/>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B102" s="158"/>
+      <c r="C102" s="155" t="s">
+        <v>177</v>
+      </c>
+      <c r="D102" s="159" t="s">
+        <v>178</v>
+      </c>
+      <c r="E102" s="160"/>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B103" s="161"/>
+      <c r="C103" s="162"/>
+      <c r="D103" s="162"/>
+      <c r="E103" s="163"/>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B104" s="74" t="s">
+        <v>184</v>
+      </c>
+      <c r="C104" s="164" t="s">
+        <v>173</v>
+      </c>
+      <c r="D104" s="165" t="s">
+        <v>179</v>
+      </c>
+      <c r="E104" s="166"/>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B105" s="167"/>
+      <c r="C105" s="168"/>
+      <c r="D105" s="168"/>
+      <c r="E105" s="169"/>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B106" s="170" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" s="171" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" s="172" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106" s="173" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="174"/>
+      <c r="C107" s="175" t="s">
+        <v>181</v>
+      </c>
+      <c r="D107" s="176" t="s">
+        <v>182</v>
+      </c>
+      <c r="E107" s="177" t="s">
+        <v>183</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="C59:E59"/>
+  <mergeCells count="57">
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="B105:E105"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B42:E42"/>
@@ -2918,12 +3686,31 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D90:E90"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2938,7 +3725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB3E66F-D173-45C2-B2C6-24F96CBE92EE}">
   <dimension ref="B1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B12" sqref="B12:E19"/>
     </sheetView>
   </sheetViews>
@@ -2951,36 +3738,36 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="97"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="89"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="133"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="74"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="76"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="122"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="25" t="s">
@@ -2997,13 +3784,13 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="80"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="81"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="134"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="99" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -3017,7 +3804,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="B9" s="68"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="10" t="s">
         <v>86</v>
       </c>
@@ -3030,36 +3817,36 @@
     </row>
     <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="66"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="97"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="88"/>
-      <c r="E14" s="89"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="133"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="74"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="76"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="122"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="25" t="s">
@@ -3076,13 +3863,13 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="80"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="81"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="134"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="99" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -3096,7 +3883,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="68"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="10" t="s">
         <v>92</v>
       </c>
@@ -3109,6 +3896,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C4:E4"/>
@@ -3116,11 +3908,6 @@
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B17:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3129,10 +3916,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F12133-6522-4FD6-BDD7-D45B2101BAE5}">
-  <dimension ref="B1:E56"/>
+  <dimension ref="B1:E58"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:E29"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3145,20 +3932,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="56" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
+      <c r="B2" s="87" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="64" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
+      <c r="B3" s="95" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="97"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="51" t="s">
@@ -3167,83 +3954,83 @@
       <c r="C4" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="73"/>
+      <c r="E4" s="113"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="74"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="76"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="122"/>
     </row>
     <row r="6" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="99" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="99"/>
+      <c r="C7" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="D7" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="99"/>
+      <c r="C8" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="99"/>
+      <c r="C9" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="B10" s="99"/>
+      <c r="C10" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="107" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="68"/>
-      <c r="C7" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="68"/>
-      <c r="C8" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="68"/>
-      <c r="C9" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="B10" s="68"/>
-      <c r="C10" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="106" t="s">
+      <c r="D10" s="81" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="41"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="106"/>
+      <c r="D11" s="81"/>
       <c r="E11" s="19"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
@@ -3251,445 +4038,466 @@
         <v>7</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="108" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="110"/>
+      <c r="B15" s="103" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="105"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="111" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="113"/>
+      <c r="B16" s="135" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="137"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="41" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="106" t="s">
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="120"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="122"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="61" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="54"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="55"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="20"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="99"/>
+      <c r="C22" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="110"/>
+      <c r="C23" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="70" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="110"/>
+      <c r="C24" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="70" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="110"/>
+      <c r="C25" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="70" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="B26" s="110"/>
+      <c r="C26" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="70" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="109"/>
+      <c r="C27" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="86"/>
+    </row>
+    <row r="29" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="86"/>
+    </row>
+    <row r="30" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B30" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="89"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="95" t="s">
+        <v>219</v>
+      </c>
+      <c r="C31" s="96"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="97"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="110" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="138" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" s="139"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="114"/>
+      <c r="C33" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="140" t="s">
+        <v>141</v>
+      </c>
+      <c r="E33" s="141"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="120"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="122"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="45" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="128"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="134"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="99"/>
+      <c r="C38" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="86"/>
+    </row>
+    <row r="40" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="86"/>
+    </row>
+    <row r="41" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B41" s="103" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="104"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="105"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="135" t="s">
+        <v>216</v>
+      </c>
+      <c r="C42" s="136"/>
+      <c r="D42" s="136"/>
+      <c r="E42" s="137"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="114" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="54"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="55"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="68" t="s">
+      <c r="E43" s="83" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="66"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="67"/>
+    </row>
+    <row r="45" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="20"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="68"/>
-      <c r="C20" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="85"/>
-      <c r="C21" s="91" t="s">
-        <v>125</v>
-      </c>
-      <c r="D21" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21" s="92" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="85"/>
-      <c r="C22" s="91" t="s">
-        <v>126</v>
-      </c>
-      <c r="D22" s="115" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" s="92" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="85"/>
-      <c r="C23" s="91" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23" s="115" t="s">
-        <v>112</v>
-      </c>
-      <c r="E23" s="92" t="s">
+      <c r="C45" s="206" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="B24" s="85"/>
-      <c r="C24" s="91" t="s">
-        <v>129</v>
-      </c>
-      <c r="D24" s="115" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="92" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="77"/>
-      <c r="C25" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D25" s="32" t="s">
+      <c r="D45" s="207"/>
+      <c r="E45" s="208"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+    </row>
+    <row r="47" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B48" s="103" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="104"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="105"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="135" t="s">
+        <v>220</v>
+      </c>
+      <c r="C49" s="136"/>
+      <c r="D49" s="136"/>
+      <c r="E49" s="137"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" s="83" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="54"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="55"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="99"/>
+      <c r="C53" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="117"/>
-    </row>
-    <row r="27" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="117"/>
-    </row>
-    <row r="28" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B28" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="58"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="66"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="118" t="s">
-        <v>144</v>
-      </c>
-      <c r="E30" s="119"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="86"/>
-      <c r="C31" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="120" t="s">
-        <v>145</v>
-      </c>
-      <c r="E31" s="121"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="74"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="76"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="45" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="80"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="81"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="68" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="12" t="s">
+      <c r="E53" s="20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="110"/>
+      <c r="C54" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="D54" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="68"/>
-      <c r="C36" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="20" t="s">
+      <c r="E54" s="70"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="110"/>
+      <c r="C55" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="E55" s="70" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="110"/>
+      <c r="C56" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="E56" s="70" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="110"/>
+      <c r="C57" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="E57" s="70" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="109"/>
+      <c r="C58" s="22" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="116"/>
-      <c r="E37" s="117"/>
-    </row>
-    <row r="38" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="116"/>
-      <c r="E38" s="117"/>
-    </row>
-    <row r="39" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B39" s="108" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="109"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="110"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="111" t="s">
-        <v>137</v>
-      </c>
-      <c r="C40" s="112"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="113"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="D41" s="106" t="s">
-        <v>77</v>
-      </c>
-      <c r="E41" s="114" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="54"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="55"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="D43" s="60"/>
-      <c r="E43" s="83"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-    </row>
-    <row r="45" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B46" s="108" t="s">
-        <v>150</v>
-      </c>
-      <c r="C46" s="109"/>
-      <c r="D46" s="109"/>
-      <c r="E46" s="110"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="111" t="s">
-        <v>151</v>
-      </c>
-      <c r="C47" s="112"/>
-      <c r="D47" s="112"/>
-      <c r="E47" s="113"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="D48" s="106" t="s">
-        <v>77</v>
-      </c>
-      <c r="E48" s="114" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="54"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="55"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="68" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="12" t="s">
+      <c r="D58" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="E58" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="E50" s="20" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" s="68"/>
-      <c r="C51" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="85"/>
-      <c r="C52" s="91" t="s">
-        <v>121</v>
-      </c>
-      <c r="D52" s="115" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="92"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="85"/>
-      <c r="C53" s="91" t="s">
-        <v>109</v>
-      </c>
-      <c r="D53" s="115" t="s">
-        <v>115</v>
-      </c>
-      <c r="E53" s="92" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="85"/>
-      <c r="C54" s="91" t="s">
-        <v>107</v>
-      </c>
-      <c r="D54" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="E54" s="92" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" s="85"/>
-      <c r="C55" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D55" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="E55" s="92" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="77"/>
-      <c r="C56" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="D56" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="E56" s="29" t="s">
-        <v>160</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B50:B56"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
+  <mergeCells count="23">
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B52:B58"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="C45:E45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3698,6 +4506,624 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01CCA0E-2E7A-4B8E-9E4A-ABE08AE5322B}">
+  <dimension ref="B2:E67"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="24.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B3" s="103" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="105"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="135" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="137"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="184" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" s="185"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="120"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="122"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="146" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" s="63"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="147"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="149"/>
+    </row>
+    <row r="9" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="183" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" s="182"/>
+    </row>
+    <row r="10" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="111"/>
+      <c r="C10" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="186" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="187"/>
+    </row>
+    <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="143"/>
+      <c r="C11" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="188" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" s="189"/>
+    </row>
+    <row r="13" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B14" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="89"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="95" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="97"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="190" t="s">
+        <v>189</v>
+      </c>
+      <c r="E16" s="193"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="120"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="122"/>
+    </row>
+    <row r="18" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="191" t="s">
+        <v>191</v>
+      </c>
+      <c r="E18" s="194"/>
+    </row>
+    <row r="19" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="99"/>
+      <c r="C19" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" s="192" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19" s="195"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="196"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="130"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="197" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="99"/>
+      <c r="C22" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="211" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="197" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="99"/>
+      <c r="C23" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="144" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="197" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="99"/>
+      <c r="C24" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="144" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="197" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="99"/>
+      <c r="C25" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="144" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="197" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="84" x14ac:dyDescent="0.2">
+      <c r="B26" s="99"/>
+      <c r="C26" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="144" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="197" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="99"/>
+      <c r="C27" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="144" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="197" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="110"/>
+      <c r="C28" s="69" t="s">
+        <v>194</v>
+      </c>
+      <c r="D28" s="212" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28" s="198" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="109"/>
+      <c r="C29" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D29" s="213" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="199" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B32" s="87" t="s">
+        <v>197</v>
+      </c>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="89"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="95" t="s">
+        <v>223</v>
+      </c>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="97"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="190" t="s">
+        <v>189</v>
+      </c>
+      <c r="E34" s="193"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="120"/>
+      <c r="C35" s="121"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="122"/>
+    </row>
+    <row r="36" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="200" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="201"/>
+      <c r="E36" s="202"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="196"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="129"/>
+      <c r="E37" s="130"/>
+    </row>
+    <row r="38" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="D38" s="210" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="209" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B41" s="87" t="s">
+        <v>200</v>
+      </c>
+      <c r="C41" s="88"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="89"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="95" t="s">
+        <v>224</v>
+      </c>
+      <c r="C42" s="96"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="97"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="110" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="190" t="s">
+        <v>189</v>
+      </c>
+      <c r="E43" s="193"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="114"/>
+      <c r="C44" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="D44" s="183" t="s">
+        <v>202</v>
+      </c>
+      <c r="E44" s="182"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="120"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="122"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="200" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="201"/>
+      <c r="E46" s="202"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="196"/>
+      <c r="C47" s="129"/>
+      <c r="D47" s="129"/>
+      <c r="E47" s="130"/>
+    </row>
+    <row r="48" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D48" s="210" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" s="217" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B51" s="87" t="s">
+        <v>205</v>
+      </c>
+      <c r="C51" s="88"/>
+      <c r="D51" s="88"/>
+      <c r="E51" s="89"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="95" t="s">
+        <v>225</v>
+      </c>
+      <c r="C52" s="96"/>
+      <c r="D52" s="96"/>
+      <c r="E52" s="97"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="145" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="190" t="s">
+        <v>189</v>
+      </c>
+      <c r="E53" s="193"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="120"/>
+      <c r="C54" s="121"/>
+      <c r="D54" s="121"/>
+      <c r="E54" s="122"/>
+    </row>
+    <row r="55" spans="2:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="B55" s="99" t="s">
+        <v>206</v>
+      </c>
+      <c r="C55" s="145" t="s">
+        <v>201</v>
+      </c>
+      <c r="D55" s="144" t="s">
+        <v>150</v>
+      </c>
+      <c r="E55" s="204" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="99"/>
+      <c r="C56" s="145" t="s">
+        <v>207</v>
+      </c>
+      <c r="D56" s="144" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="204" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="108" x14ac:dyDescent="0.2">
+      <c r="B57" s="99"/>
+      <c r="C57" s="145" t="s">
+        <v>208</v>
+      </c>
+      <c r="D57" s="144" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="204" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="128"/>
+      <c r="C58" s="98"/>
+      <c r="D58" s="98"/>
+      <c r="E58" s="134"/>
+    </row>
+    <row r="59" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B59" s="110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="145" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="216" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="143"/>
+      <c r="C60" s="205" t="s">
+        <v>201</v>
+      </c>
+      <c r="D60" s="214" t="s">
+        <v>150</v>
+      </c>
+      <c r="E60" s="215" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B63" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C63" s="104"/>
+      <c r="D63" s="104"/>
+      <c r="E63" s="105"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B64" s="135" t="s">
+        <v>226</v>
+      </c>
+      <c r="C64" s="136"/>
+      <c r="D64" s="136"/>
+      <c r="E64" s="137"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="D65" s="144" t="s">
+        <v>77</v>
+      </c>
+      <c r="E65" s="203" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66" s="147"/>
+      <c r="C66" s="148"/>
+      <c r="D66" s="148"/>
+      <c r="E66" s="149"/>
+    </row>
+    <row r="67" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="218" t="s">
+        <v>135</v>
+      </c>
+      <c r="D67" s="219"/>
+      <c r="E67" s="220"/>
+    </row>
+  </sheetData>
+  <mergeCells count="43">
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B8:E8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265F0A73-6FFD-44E0-8248-4B560CEE8824}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3709,4 +5135,108 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE9FB4A-65FE-4C27-8CFE-DCE6E645B8B8}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.34998626667073579"/>
+  </sheetPr>
+  <dimension ref="B2:E12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="36.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B3" s="103" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="105"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="135" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="137"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="126" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="142"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="83"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="120"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="122"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="63"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="114"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="61"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="66"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="67"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="56"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="20"/>
+    </row>
+    <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="143"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B8:B9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/数据融合中心 数据服务API(更新中).xlsx
+++ b/doc/数据融合中心 数据服务API(更新中).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2BF9A4-2005-4A71-AE61-8CB13C515C7D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049132E7-295E-456F-BD95-112BA8F905A9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="7155" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="7155" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="权限" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="230">
   <si>
     <t>/api/auth/token</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1015,12 +1015,16 @@
     <t>传入参数的uuid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>查询模块字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1134,8 +1138,56 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <strike/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1145,6 +1197,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFB6B6B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1569,7 +1627,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1819,177 +1877,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1999,76 +1898,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2080,9 +1916,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2092,63 +1925,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2156,15 +1932,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2172,15 +1939,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2208,6 +1966,237 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2216,6 +2205,135 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2224,6 +2342,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFB6B6B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2515,57 +2638,57 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="120"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="97"/>
-      <c r="G3" s="94" t="s">
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="128"/>
+      <c r="G3" s="125" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="124" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="98"/>
-      <c r="G4" s="94"/>
+      <c r="E4" s="129"/>
+      <c r="G4" s="125"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="93"/>
+      <c r="B5" s="124"/>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="98"/>
-      <c r="G5" s="94"/>
+      <c r="E5" s="129"/>
+      <c r="G5" s="125"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="90"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="92"/>
-      <c r="G6" s="94"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="123"/>
+      <c r="G6" s="125"/>
     </row>
     <row r="7" spans="2:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="124" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2577,10 +2700,10 @@
       <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="94"/>
+      <c r="G7" s="125"/>
     </row>
     <row r="8" spans="2:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="B8" s="93"/>
+      <c r="B8" s="124"/>
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
@@ -2590,10 +2713,10 @@
       <c r="E8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="94"/>
+      <c r="G8" s="125"/>
     </row>
     <row r="9" spans="2:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="93"/>
+      <c r="B9" s="124"/>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
@@ -2603,7 +2726,7 @@
       <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="94"/>
+      <c r="G9" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2639,36 +2762,36 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="120"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="97"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="128"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="101"/>
-      <c r="E4" s="102"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="133"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="99"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="100"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="131"/>
     </row>
     <row r="6" spans="2:5" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
@@ -2700,8 +2823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2841EEAF-8B01-4C4B-B25A-06D60427D9CE}">
   <dimension ref="B1:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103:E103"/>
+    <sheetView topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2714,20 +2837,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="120"/>
     </row>
     <row r="3" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="151" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="119"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="153"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
@@ -2736,19 +2859,19 @@
       <c r="C4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="112" t="s">
+      <c r="D4" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="113"/>
+      <c r="E4" s="171"/>
     </row>
     <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="120"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="122"/>
+      <c r="B5" s="176"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="178"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="130" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2762,7 +2885,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="99"/>
+      <c r="B7" s="130"/>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
@@ -2774,7 +2897,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="99"/>
+      <c r="B8" s="130"/>
       <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
@@ -2786,13 +2909,13 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="128"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="130"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="166"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="125" t="s">
+      <c r="B10" s="161" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="39" t="s">
@@ -2806,7 +2929,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="125"/>
+      <c r="B11" s="161"/>
       <c r="C11" s="73" t="s">
         <v>31</v>
       </c>
@@ -2818,7 +2941,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="125"/>
+      <c r="B12" s="161"/>
       <c r="C12" s="73" t="s">
         <v>33</v>
       </c>
@@ -2830,7 +2953,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="125"/>
+      <c r="B13" s="161"/>
       <c r="C13" s="41" t="s">
         <v>34</v>
       </c>
@@ -2842,7 +2965,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="126"/>
+      <c r="B14" s="162"/>
       <c r="C14" s="41" t="s">
         <v>35</v>
       </c>
@@ -2854,7 +2977,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B15" s="126"/>
+      <c r="B15" s="162"/>
       <c r="C15" s="74" t="s">
         <v>98</v>
       </c>
@@ -2866,7 +2989,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="126"/>
+      <c r="B16" s="162"/>
       <c r="C16" s="74" t="s">
         <v>99</v>
       </c>
@@ -2878,7 +3001,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="72" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="127"/>
+      <c r="B17" s="163"/>
       <c r="C17" s="76" t="s">
         <v>102</v>
       </c>
@@ -2894,20 +3017,20 @@
     </row>
     <row r="19" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="103" t="s">
+      <c r="B20" s="158" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="105"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="160"/>
     </row>
     <row r="21" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="106" t="s">
+      <c r="B21" s="167" t="s">
         <v>158</v>
       </c>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="108"/>
+      <c r="C21" s="168"/>
+      <c r="D21" s="168"/>
+      <c r="E21" s="169"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="17" t="s">
@@ -2916,10 +3039,10 @@
       <c r="C22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="112" t="s">
+      <c r="D22" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="113"/>
+      <c r="E22" s="171"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="51"/>
@@ -2931,11 +3054,11 @@
       <c r="B24" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="123" t="s">
+      <c r="C24" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="123"/>
-      <c r="E24" s="124"/>
+      <c r="D24" s="156"/>
+      <c r="E24" s="157"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="54"/>
@@ -2944,7 +3067,7 @@
       <c r="E25" s="55"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="99" t="s">
+      <c r="B26" s="130" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -2958,7 +3081,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="109"/>
+      <c r="B27" s="172"/>
       <c r="C27" s="26" t="s">
         <v>44</v>
       </c>
@@ -2977,42 +3100,42 @@
     </row>
     <row r="29" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="103" t="s">
+      <c r="B30" s="158" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="105"/>
+      <c r="C30" s="159"/>
+      <c r="D30" s="159"/>
+      <c r="E30" s="160"/>
     </row>
     <row r="31" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="106" t="s">
+      <c r="B31" s="167" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="107"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="108"/>
+      <c r="C31" s="168"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="169"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="110" t="s">
+      <c r="B32" s="174" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="112" t="s">
+      <c r="D32" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="113"/>
+      <c r="E32" s="171"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="114"/>
+      <c r="B33" s="175"/>
       <c r="C33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="116" t="s">
+      <c r="D33" s="173" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="113"/>
+      <c r="E33" s="171"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="51"/>
@@ -3024,11 +3147,11 @@
       <c r="B35" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="93" t="s">
+      <c r="C35" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="93"/>
-      <c r="E35" s="100"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="131"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="54"/>
@@ -3037,7 +3160,7 @@
       <c r="E36" s="55"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="99" t="s">
+      <c r="B37" s="130" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -3051,7 +3174,7 @@
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="99"/>
+      <c r="B38" s="130"/>
       <c r="C38" s="2" t="s">
         <v>44</v>
       </c>
@@ -3063,7 +3186,7 @@
       </c>
     </row>
     <row r="39" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="109"/>
+      <c r="B39" s="172"/>
       <c r="C39" s="22" t="s">
         <v>50</v>
       </c>
@@ -3076,20 +3199,20 @@
     </row>
     <row r="41" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="103" t="s">
+      <c r="B42" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="104"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="105"/>
+      <c r="C42" s="159"/>
+      <c r="D42" s="159"/>
+      <c r="E42" s="160"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="106" t="s">
+      <c r="B43" s="167" t="s">
         <v>160</v>
       </c>
-      <c r="C43" s="107"/>
-      <c r="D43" s="107"/>
-      <c r="E43" s="108"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="168"/>
+      <c r="E43" s="169"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="30" t="s">
@@ -3098,10 +3221,10 @@
       <c r="C44" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="112" t="s">
+      <c r="D44" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="E44" s="113"/>
+      <c r="E44" s="171"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="51"/>
@@ -3110,7 +3233,7 @@
       <c r="E45" s="53"/>
     </row>
     <row r="46" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B46" s="110" t="s">
+      <c r="B46" s="174" t="s">
         <v>3</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -3124,7 +3247,7 @@
       </c>
     </row>
     <row r="47" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B47" s="111"/>
+      <c r="B47" s="179"/>
       <c r="C47" s="2" t="s">
         <v>57</v>
       </c>
@@ -3136,7 +3259,7 @@
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="114"/>
+      <c r="B48" s="175"/>
       <c r="C48" s="2" t="s">
         <v>59</v>
       </c>
@@ -3154,7 +3277,7 @@
       <c r="E49" s="49"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="99" t="s">
+      <c r="B50" s="130" t="s">
         <v>7</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -3168,7 +3291,7 @@
       </c>
     </row>
     <row r="51" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="109"/>
+      <c r="B51" s="172"/>
       <c r="C51" s="22" t="s">
         <v>46</v>
       </c>
@@ -3181,42 +3304,42 @@
     </row>
     <row r="53" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="103" t="s">
+      <c r="B54" s="158" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="104"/>
-      <c r="D54" s="104"/>
-      <c r="E54" s="105"/>
+      <c r="C54" s="159"/>
+      <c r="D54" s="159"/>
+      <c r="E54" s="160"/>
     </row>
     <row r="55" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="106" t="s">
+      <c r="B55" s="167" t="s">
         <v>162</v>
       </c>
-      <c r="C55" s="107"/>
-      <c r="D55" s="107"/>
-      <c r="E55" s="108"/>
+      <c r="C55" s="168"/>
+      <c r="D55" s="168"/>
+      <c r="E55" s="169"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="110" t="s">
+      <c r="B56" s="174" t="s">
         <v>20</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="112" t="s">
+      <c r="D56" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="E56" s="113"/>
+      <c r="E56" s="171"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="114"/>
+      <c r="B57" s="175"/>
       <c r="C57" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="112" t="s">
+      <c r="D57" s="170" t="s">
         <v>65</v>
       </c>
-      <c r="E57" s="113"/>
+      <c r="E57" s="171"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="46"/>
@@ -3228,11 +3351,11 @@
       <c r="B59" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="90" t="s">
+      <c r="C59" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="91"/>
-      <c r="E59" s="115"/>
+      <c r="D59" s="122"/>
+      <c r="E59" s="180"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="50"/>
@@ -3258,72 +3381,72 @@
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
       <c r="D62" s="85"/>
-      <c r="E62" s="150"/>
+      <c r="E62" s="94"/>
     </row>
     <row r="63" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="151" t="s">
+      <c r="B64" s="221" t="s">
         <v>172</v>
       </c>
-      <c r="C64" s="152"/>
-      <c r="D64" s="152"/>
-      <c r="E64" s="153"/>
+      <c r="C64" s="222"/>
+      <c r="D64" s="222"/>
+      <c r="E64" s="223"/>
     </row>
     <row r="65" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="117" t="s">
+      <c r="B65" s="224" t="s">
         <v>162</v>
       </c>
-      <c r="C65" s="118"/>
-      <c r="D65" s="118"/>
-      <c r="E65" s="119"/>
+      <c r="C65" s="225"/>
+      <c r="D65" s="225"/>
+      <c r="E65" s="226"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="74" t="s">
+      <c r="B66" s="227" t="s">
         <v>20</v>
       </c>
-      <c r="C66" s="155" t="s">
+      <c r="C66" s="228" t="s">
         <v>21</v>
       </c>
-      <c r="D66" s="156" t="s">
+      <c r="D66" s="229" t="s">
         <v>43</v>
       </c>
-      <c r="E66" s="157"/>
+      <c r="E66" s="230"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="178"/>
-      <c r="C67" s="155"/>
-      <c r="D67" s="155"/>
-      <c r="E67" s="179"/>
+      <c r="B67" s="231"/>
+      <c r="C67" s="228"/>
+      <c r="D67" s="228"/>
+      <c r="E67" s="232"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="74" t="s">
+      <c r="B68" s="227" t="s">
         <v>3</v>
       </c>
-      <c r="C68" s="164" t="s">
+      <c r="C68" s="233" t="s">
         <v>173</v>
       </c>
-      <c r="D68" s="165" t="s">
+      <c r="D68" s="234" t="s">
         <v>174</v>
       </c>
-      <c r="E68" s="166"/>
+      <c r="E68" s="235"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B69" s="74"/>
-      <c r="C69" s="164"/>
-      <c r="D69" s="164"/>
-      <c r="E69" s="180"/>
+      <c r="B69" s="227"/>
+      <c r="C69" s="233"/>
+      <c r="D69" s="233"/>
+      <c r="E69" s="236"/>
     </row>
     <row r="70" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="181" t="s">
+      <c r="B70" s="237" t="s">
         <v>7</v>
       </c>
-      <c r="C70" s="175" t="s">
+      <c r="C70" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="D70" s="176" t="s">
+      <c r="D70" s="239" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="177" t="s">
+      <c r="E70" s="240" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3331,46 +3454,46 @@
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
       <c r="D71" s="85"/>
-      <c r="E71" s="150"/>
+      <c r="E71" s="94"/>
     </row>
     <row r="72" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="103" t="s">
+      <c r="B73" s="158" t="s">
         <v>67</v>
       </c>
-      <c r="C73" s="104"/>
-      <c r="D73" s="104"/>
-      <c r="E73" s="105"/>
+      <c r="C73" s="159"/>
+      <c r="D73" s="159"/>
+      <c r="E73" s="160"/>
     </row>
     <row r="74" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="106" t="s">
+      <c r="B74" s="167" t="s">
         <v>161</v>
       </c>
-      <c r="C74" s="107"/>
-      <c r="D74" s="107"/>
-      <c r="E74" s="108"/>
+      <c r="C74" s="168"/>
+      <c r="D74" s="168"/>
+      <c r="E74" s="169"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B75" s="110" t="s">
+      <c r="B75" s="174" t="s">
         <v>20</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D75" s="112" t="s">
+      <c r="D75" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="E75" s="113"/>
+      <c r="E75" s="171"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B76" s="111"/>
+      <c r="B76" s="179"/>
       <c r="C76" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="112" t="s">
+      <c r="D76" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="E76" s="113"/>
+      <c r="E76" s="171"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" s="46"/>
@@ -3379,7 +3502,7 @@
       <c r="E77" s="48"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B78" s="99" t="s">
+      <c r="B78" s="130" t="s">
         <v>3</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -3393,7 +3516,7 @@
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B79" s="99"/>
+      <c r="B79" s="130"/>
       <c r="C79" s="2" t="s">
         <v>22</v>
       </c>
@@ -3405,7 +3528,7 @@
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B80" s="99"/>
+      <c r="B80" s="130"/>
       <c r="C80" s="2" t="s">
         <v>70</v>
       </c>
@@ -3417,7 +3540,7 @@
       </c>
     </row>
     <row r="81" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B81" s="99"/>
+      <c r="B81" s="130"/>
       <c r="C81" s="7" t="s">
         <v>24</v>
       </c>
@@ -3435,7 +3558,7 @@
       <c r="E82" s="44"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="99" t="s">
+      <c r="B83" s="130" t="s">
         <v>73</v>
       </c>
       <c r="C83" s="10" t="s">
@@ -3449,7 +3572,7 @@
       </c>
     </row>
     <row r="84" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="109"/>
+      <c r="B84" s="172"/>
       <c r="C84" s="22" t="s">
         <v>34</v>
       </c>
@@ -3462,42 +3585,42 @@
     </row>
     <row r="86" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="87" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B87" s="103" t="s">
+      <c r="B87" s="158" t="s">
         <v>74</v>
       </c>
-      <c r="C87" s="104"/>
-      <c r="D87" s="104"/>
-      <c r="E87" s="105"/>
+      <c r="C87" s="159"/>
+      <c r="D87" s="159"/>
+      <c r="E87" s="160"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B88" s="106" t="s">
+      <c r="B88" s="167" t="s">
         <v>163</v>
       </c>
-      <c r="C88" s="107"/>
-      <c r="D88" s="107"/>
-      <c r="E88" s="108"/>
+      <c r="C88" s="168"/>
+      <c r="D88" s="168"/>
+      <c r="E88" s="169"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B89" s="110" t="s">
+      <c r="B89" s="174" t="s">
         <v>20</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D89" s="112" t="s">
+      <c r="D89" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="E89" s="113"/>
+      <c r="E89" s="171"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B90" s="111"/>
+      <c r="B90" s="179"/>
       <c r="C90" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D90" s="112" t="s">
+      <c r="D90" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="E90" s="113"/>
+      <c r="E90" s="171"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" s="46"/>
@@ -3506,7 +3629,7 @@
       <c r="E91" s="48"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B92" s="99" t="s">
+      <c r="B92" s="130" t="s">
         <v>3</v>
       </c>
       <c r="C92" s="2" t="s">
@@ -3520,7 +3643,7 @@
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B93" s="99"/>
+      <c r="B93" s="130"/>
       <c r="C93" s="2" t="s">
         <v>76</v>
       </c>
@@ -3538,7 +3661,7 @@
       <c r="E94" s="44"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B95" s="99" t="s">
+      <c r="B95" s="130" t="s">
         <v>73</v>
       </c>
       <c r="C95" s="10" t="s">
@@ -3552,7 +3675,7 @@
       </c>
     </row>
     <row r="96" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="109"/>
+      <c r="B96" s="172"/>
       <c r="C96" s="22" t="s">
         <v>32</v>
       </c>
@@ -3565,112 +3688,110 @@
     </row>
     <row r="98" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="99" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B99" s="151" t="s">
+      <c r="B99" s="148" t="s">
         <v>175</v>
       </c>
-      <c r="C99" s="152"/>
-      <c r="D99" s="152"/>
-      <c r="E99" s="153"/>
+      <c r="C99" s="149"/>
+      <c r="D99" s="149"/>
+      <c r="E99" s="150"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B100" s="117" t="s">
+      <c r="B100" s="151" t="s">
         <v>176</v>
       </c>
-      <c r="C100" s="118"/>
-      <c r="D100" s="118"/>
-      <c r="E100" s="119"/>
+      <c r="C100" s="152"/>
+      <c r="D100" s="152"/>
+      <c r="E100" s="153"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B101" s="154" t="s">
+      <c r="B101" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="C101" s="155" t="s">
+      <c r="C101" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="D101" s="156" t="s">
+      <c r="D101" s="154" t="s">
         <v>43</v>
       </c>
-      <c r="E101" s="157"/>
+      <c r="E101" s="155"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B102" s="158"/>
-      <c r="C102" s="155" t="s">
+      <c r="B102" s="147"/>
+      <c r="C102" s="95" t="s">
         <v>177</v>
       </c>
-      <c r="D102" s="159" t="s">
+      <c r="D102" s="144" t="s">
         <v>178</v>
       </c>
-      <c r="E102" s="160"/>
+      <c r="E102" s="145"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B103" s="161"/>
-      <c r="C103" s="162"/>
-      <c r="D103" s="162"/>
-      <c r="E103" s="163"/>
+      <c r="B103" s="141"/>
+      <c r="C103" s="142"/>
+      <c r="D103" s="142"/>
+      <c r="E103" s="143"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" s="74" t="s">
         <v>184</v>
       </c>
-      <c r="C104" s="164" t="s">
+      <c r="C104" s="96" t="s">
         <v>173</v>
       </c>
-      <c r="D104" s="165" t="s">
+      <c r="D104" s="139" t="s">
         <v>179</v>
       </c>
-      <c r="E104" s="166"/>
+      <c r="E104" s="140"/>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B105" s="167"/>
-      <c r="C105" s="168"/>
-      <c r="D105" s="168"/>
-      <c r="E105" s="169"/>
+      <c r="B105" s="136"/>
+      <c r="C105" s="137"/>
+      <c r="D105" s="137"/>
+      <c r="E105" s="138"/>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B106" s="170" t="s">
+      <c r="B106" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="C106" s="171" t="s">
+      <c r="C106" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="D106" s="172" t="s">
+      <c r="D106" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="E106" s="173" t="s">
+      <c r="E106" s="99" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="107" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="174"/>
-      <c r="C107" s="175" t="s">
+      <c r="B107" s="135"/>
+      <c r="C107" s="100" t="s">
         <v>181</v>
       </c>
-      <c r="D107" s="176" t="s">
+      <c r="D107" s="101" t="s">
         <v>182</v>
       </c>
-      <c r="E107" s="177" t="s">
+      <c r="E107" s="102" t="s">
         <v>183</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="B105:E105"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="B99:E99"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="B78:B81"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B42:E42"/>
     <mergeCell ref="D44:E44"/>
@@ -3686,6 +3807,17 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="B43:E43"/>
     <mergeCell ref="B73:E73"/>
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="B46:B48"/>
@@ -3696,21 +3828,12 @@
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="C59:E59"/>
     <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="B105:E105"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="B101:B102"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3723,10 +3846,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB3E66F-D173-45C2-B2C6-24F96CBE92EE}">
-  <dimension ref="B1:E19"/>
+  <dimension ref="B1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:E19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3738,36 +3861,36 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="118" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="120"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="126" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="97"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="128"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="131" t="s">
+      <c r="C4" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="132"/>
-      <c r="E4" s="133"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="184"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="120"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="122"/>
+      <c r="B5" s="176"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="178"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="25" t="s">
@@ -3784,13 +3907,13 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="128"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="134"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="181"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="130" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -3804,7 +3927,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="B9" s="99"/>
+      <c r="B9" s="130"/>
       <c r="C9" s="10" t="s">
         <v>86</v>
       </c>
@@ -3817,36 +3940,36 @@
     </row>
     <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="120"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="95" t="s">
+      <c r="B13" s="126" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="97"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="128"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="131" t="s">
+      <c r="C14" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="132"/>
-      <c r="E14" s="133"/>
+      <c r="D14" s="183"/>
+      <c r="E14" s="184"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="120"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="122"/>
+      <c r="B15" s="176"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="178"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="25" t="s">
@@ -3863,13 +3986,13 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="128"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="134"/>
+      <c r="B17" s="164"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="181"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="99" t="s">
+      <c r="B18" s="130" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -3883,7 +4006,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="99"/>
+      <c r="B19" s="130"/>
       <c r="C19" s="10" t="s">
         <v>92</v>
       </c>
@@ -3894,13 +4017,93 @@
         <v>94</v>
       </c>
     </row>
+    <row r="21" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B22" s="118" t="s">
+        <v>229</v>
+      </c>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="126" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="127"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="128"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="183"/>
+      <c r="E24" s="184"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="176"/>
+      <c r="C25" s="177"/>
+      <c r="D25" s="177"/>
+      <c r="E25" s="178"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="89" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="164"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="181"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B29" s="130"/>
+      <c r="C29" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B17:E17"/>
+  <mergeCells count="18">
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B27:E27"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C4:E4"/>
@@ -3908,6 +4111,11 @@
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B17:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3932,20 +4140,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="120"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="126" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="97"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="128"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="51" t="s">
@@ -3954,19 +4162,19 @@
       <c r="C4" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="112" t="s">
+      <c r="D4" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="113"/>
+      <c r="E4" s="171"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="120"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="122"/>
+      <c r="B5" s="176"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="178"/>
     </row>
     <row r="6" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="130" t="s">
         <v>105</v>
       </c>
       <c r="C6" s="39" t="s">
@@ -3980,7 +4188,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="99"/>
+      <c r="B7" s="130"/>
       <c r="C7" s="39" t="s">
         <v>106</v>
       </c>
@@ -3992,7 +4200,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="99"/>
+      <c r="B8" s="130"/>
       <c r="C8" s="39" t="s">
         <v>107</v>
       </c>
@@ -4004,7 +4212,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="99"/>
+      <c r="B9" s="130"/>
       <c r="C9" s="39" t="s">
         <v>110</v>
       </c>
@@ -4016,7 +4224,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="B10" s="99"/>
+      <c r="B10" s="130"/>
       <c r="C10" s="7" t="s">
         <v>109</v>
       </c>
@@ -4049,20 +4257,20 @@
     </row>
     <row r="14" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="158" t="s">
         <v>137</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="105"/>
+      <c r="C15" s="159"/>
+      <c r="D15" s="159"/>
+      <c r="E15" s="160"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="135" t="s">
+      <c r="B16" s="185" t="s">
         <v>218</v>
       </c>
-      <c r="C16" s="136"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="137"/>
+      <c r="C16" s="186"/>
+      <c r="D16" s="186"/>
+      <c r="E16" s="187"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="41" t="s">
@@ -4079,10 +4287,10 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="120"/>
-      <c r="C18" s="121"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="122"/>
+      <c r="B18" s="176"/>
+      <c r="C18" s="177"/>
+      <c r="D18" s="177"/>
+      <c r="E18" s="178"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="60" t="s">
@@ -4105,7 +4313,7 @@
       <c r="E20" s="55"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="99" t="s">
+      <c r="B21" s="130" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="39" t="s">
@@ -4115,7 +4323,7 @@
       <c r="E21" s="20"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="99"/>
+      <c r="B22" s="130"/>
       <c r="C22" s="39" t="s">
         <v>122</v>
       </c>
@@ -4127,7 +4335,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="110"/>
+      <c r="B23" s="174"/>
       <c r="C23" s="69" t="s">
         <v>123</v>
       </c>
@@ -4139,7 +4347,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="110"/>
+      <c r="B24" s="174"/>
       <c r="C24" s="69" t="s">
         <v>124</v>
       </c>
@@ -4151,7 +4359,7 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="110"/>
+      <c r="B25" s="174"/>
       <c r="C25" s="69" t="s">
         <v>125</v>
       </c>
@@ -4163,7 +4371,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="B26" s="110"/>
+      <c r="B26" s="174"/>
       <c r="C26" s="69" t="s">
         <v>127</v>
       </c>
@@ -4175,7 +4383,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="109"/>
+      <c r="B27" s="172"/>
       <c r="C27" s="22" t="s">
         <v>126</v>
       </c>
@@ -4199,48 +4407,48 @@
       <c r="E29" s="86"/>
     </row>
     <row r="30" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B30" s="87" t="s">
+      <c r="B30" s="118" t="s">
         <v>139</v>
       </c>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="89"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="120"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="95" t="s">
+      <c r="B31" s="126" t="s">
         <v>219</v>
       </c>
-      <c r="C31" s="96"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="97"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="128"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="110" t="s">
+      <c r="B32" s="174" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="138" t="s">
+      <c r="D32" s="188" t="s">
         <v>140</v>
       </c>
-      <c r="E32" s="139"/>
+      <c r="E32" s="189"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="114"/>
+      <c r="B33" s="175"/>
       <c r="C33" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="140" t="s">
+      <c r="D33" s="190" t="s">
         <v>141</v>
       </c>
-      <c r="E33" s="141"/>
+      <c r="E33" s="191"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="120"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="122"/>
+      <c r="B34" s="176"/>
+      <c r="C34" s="177"/>
+      <c r="D34" s="177"/>
+      <c r="E34" s="178"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="41" t="s">
@@ -4257,13 +4465,13 @@
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="128"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="98"/>
-      <c r="E36" s="134"/>
+      <c r="B36" s="164"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="129"/>
+      <c r="E36" s="181"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="99" t="s">
+      <c r="B37" s="130" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="39" t="s">
@@ -4277,7 +4485,7 @@
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="99"/>
+      <c r="B38" s="130"/>
       <c r="C38" s="10" t="s">
         <v>119</v>
       </c>
@@ -4301,20 +4509,20 @@
       <c r="E40" s="86"/>
     </row>
     <row r="41" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B41" s="103" t="s">
+      <c r="B41" s="158" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="104"/>
-      <c r="D41" s="104"/>
-      <c r="E41" s="105"/>
+      <c r="C41" s="159"/>
+      <c r="D41" s="159"/>
+      <c r="E41" s="160"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="135" t="s">
+      <c r="B42" s="185" t="s">
         <v>216</v>
       </c>
-      <c r="C42" s="136"/>
-      <c r="D42" s="136"/>
-      <c r="E42" s="137"/>
+      <c r="C42" s="186"/>
+      <c r="D42" s="186"/>
+      <c r="E42" s="187"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="60" t="s">
@@ -4340,11 +4548,11 @@
       <c r="B45" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="206" t="s">
+      <c r="C45" s="192" t="s">
         <v>135</v>
       </c>
-      <c r="D45" s="207"/>
-      <c r="E45" s="208"/>
+      <c r="D45" s="193"/>
+      <c r="E45" s="194"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="13"/>
@@ -4354,20 +4562,20 @@
     </row>
     <row r="47" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B48" s="103" t="s">
+      <c r="B48" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="C48" s="104"/>
-      <c r="D48" s="104"/>
-      <c r="E48" s="105"/>
+      <c r="C48" s="159"/>
+      <c r="D48" s="159"/>
+      <c r="E48" s="160"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="135" t="s">
+      <c r="B49" s="185" t="s">
         <v>220</v>
       </c>
-      <c r="C49" s="136"/>
-      <c r="D49" s="136"/>
-      <c r="E49" s="137"/>
+      <c r="C49" s="186"/>
+      <c r="D49" s="186"/>
+      <c r="E49" s="187"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="41" t="s">
@@ -4390,7 +4598,7 @@
       <c r="E51" s="55"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="99" t="s">
+      <c r="B52" s="130" t="s">
         <v>7</v>
       </c>
       <c r="C52" s="39" t="s">
@@ -4404,7 +4612,7 @@
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="99"/>
+      <c r="B53" s="130"/>
       <c r="C53" s="39" t="s">
         <v>148</v>
       </c>
@@ -4416,7 +4624,7 @@
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="110"/>
+      <c r="B54" s="174"/>
       <c r="C54" s="69" t="s">
         <v>119</v>
       </c>
@@ -4426,7 +4634,7 @@
       <c r="E54" s="70"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" s="110"/>
+      <c r="B55" s="174"/>
       <c r="C55" s="69" t="s">
         <v>108</v>
       </c>
@@ -4438,7 +4646,7 @@
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="110"/>
+      <c r="B56" s="174"/>
       <c r="C56" s="69" t="s">
         <v>106</v>
       </c>
@@ -4450,7 +4658,7 @@
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="110"/>
+      <c r="B57" s="174"/>
       <c r="C57" s="69" t="s">
         <v>107</v>
       </c>
@@ -4462,7 +4670,7 @@
       </c>
     </row>
     <row r="58" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="109"/>
+      <c r="B58" s="172"/>
       <c r="C58" s="22" t="s">
         <v>149</v>
       </c>
@@ -4475,12 +4683,14 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B52:B58"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="C45:E45"/>
     <mergeCell ref="B21:B27"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B41:E41"/>
@@ -4490,14 +4700,12 @@
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B52:B58"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4523,20 +4731,20 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="105"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="160"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="185" t="s">
         <v>221</v>
       </c>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="137"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="187"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="72" t="s">
@@ -4545,22 +4753,22 @@
       <c r="C5" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="184" t="s">
+      <c r="D5" s="201" t="s">
         <v>227</v>
       </c>
-      <c r="E5" s="185"/>
+      <c r="E5" s="202"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="120"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="122"/>
+      <c r="B6" s="176"/>
+      <c r="C6" s="177"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="178"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="146" t="s">
+      <c r="C7" s="93" t="s">
         <v>168</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -4569,59 +4777,59 @@
       <c r="E7" s="63"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="147"/>
-      <c r="C8" s="148"/>
-      <c r="D8" s="148"/>
-      <c r="E8" s="149"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="200"/>
     </row>
     <row r="9" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="174" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="183" t="s">
+      <c r="D9" s="210" t="s">
         <v>187</v>
       </c>
-      <c r="E9" s="182"/>
+      <c r="E9" s="211"/>
     </row>
     <row r="10" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="111"/>
+      <c r="B10" s="179"/>
       <c r="C10" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="D10" s="186" t="s">
+      <c r="D10" s="216" t="s">
         <v>185</v>
       </c>
-      <c r="E10" s="187"/>
+      <c r="E10" s="217"/>
     </row>
     <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="143"/>
+      <c r="B11" s="203"/>
       <c r="C11" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="D11" s="188" t="s">
+      <c r="D11" s="218" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="189"/>
+      <c r="E11" s="219"/>
     </row>
     <row r="13" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="89"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="120"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="126" t="s">
         <v>222</v>
       </c>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="97"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="128"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="60" t="s">
@@ -4630,47 +4838,47 @@
       <c r="C16" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="D16" s="190" t="s">
+      <c r="D16" s="204" t="s">
         <v>189</v>
       </c>
-      <c r="E16" s="193"/>
+      <c r="E16" s="205"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="120"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="122"/>
+      <c r="B17" s="176"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="177"/>
+      <c r="E17" s="178"/>
     </row>
     <row r="18" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="99" t="s">
+      <c r="B18" s="130" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="191" t="s">
+      <c r="D18" s="214" t="s">
         <v>191</v>
       </c>
-      <c r="E18" s="194"/>
+      <c r="E18" s="215"/>
     </row>
     <row r="19" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="99"/>
+      <c r="B19" s="130"/>
       <c r="C19" s="65" t="s">
         <v>190</v>
       </c>
-      <c r="D19" s="192" t="s">
+      <c r="D19" s="212" t="s">
         <v>192</v>
       </c>
-      <c r="E19" s="195"/>
+      <c r="E19" s="213"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="196"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="130"/>
+      <c r="B20" s="209"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="166"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="99" t="s">
+      <c r="B21" s="130" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -4679,122 +4887,122 @@
       <c r="D21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="197" t="s">
+      <c r="E21" s="103" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="99"/>
+      <c r="B22" s="130"/>
       <c r="C22" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="D22" s="211" t="s">
+      <c r="D22" s="111" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="197" t="s">
+      <c r="E22" s="103" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="99"/>
+      <c r="B23" s="130"/>
       <c r="C23" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="144" t="s">
+      <c r="D23" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="197" t="s">
+      <c r="E23" s="103" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="99"/>
+      <c r="B24" s="130"/>
       <c r="C24" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="D24" s="144" t="s">
+      <c r="D24" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="197" t="s">
+      <c r="E24" s="103" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="99"/>
+      <c r="B25" s="130"/>
       <c r="C25" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="144" t="s">
+      <c r="D25" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="E25" s="197" t="s">
+      <c r="E25" s="103" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="84" x14ac:dyDescent="0.2">
-      <c r="B26" s="99"/>
+      <c r="B26" s="130"/>
       <c r="C26" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="D26" s="144" t="s">
+      <c r="D26" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="197" t="s">
+      <c r="E26" s="103" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="99"/>
+      <c r="B27" s="130"/>
       <c r="C27" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="144" t="s">
+      <c r="D27" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="197" t="s">
+      <c r="E27" s="103" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="110"/>
+      <c r="B28" s="174"/>
       <c r="C28" s="69" t="s">
         <v>194</v>
       </c>
-      <c r="D28" s="212" t="s">
+      <c r="D28" s="112" t="s">
         <v>150</v>
       </c>
-      <c r="E28" s="198" t="s">
+      <c r="E28" s="104" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="109"/>
+      <c r="B29" s="172"/>
       <c r="C29" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="D29" s="213" t="s">
+      <c r="D29" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="199" t="s">
+      <c r="E29" s="105" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B32" s="87" t="s">
+      <c r="B32" s="118" t="s">
         <v>197</v>
       </c>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="89"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="120"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="95" t="s">
+      <c r="B33" s="126" t="s">
         <v>223</v>
       </c>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="97"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="128"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="60" t="s">
@@ -4803,32 +5011,32 @@
       <c r="C34" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="D34" s="190" t="s">
+      <c r="D34" s="204" t="s">
         <v>189</v>
       </c>
-      <c r="E34" s="193"/>
+      <c r="E34" s="205"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="120"/>
-      <c r="C35" s="121"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="122"/>
+      <c r="B35" s="176"/>
+      <c r="C35" s="177"/>
+      <c r="D35" s="177"/>
+      <c r="E35" s="178"/>
     </row>
     <row r="36" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="200" t="s">
+      <c r="C36" s="206" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="201"/>
-      <c r="E36" s="202"/>
+      <c r="D36" s="207"/>
+      <c r="E36" s="208"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="196"/>
-      <c r="C37" s="129"/>
-      <c r="D37" s="129"/>
-      <c r="E37" s="130"/>
+      <c r="B37" s="209"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="165"/>
+      <c r="E37" s="166"/>
     </row>
     <row r="38" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="64" t="s">
@@ -4837,73 +5045,73 @@
       <c r="C38" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="D38" s="210" t="s">
+      <c r="D38" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="209" t="s">
+      <c r="E38" s="109" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B41" s="87" t="s">
+      <c r="B41" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="89"/>
+      <c r="C41" s="119"/>
+      <c r="D41" s="119"/>
+      <c r="E41" s="120"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="95" t="s">
+      <c r="B42" s="126" t="s">
         <v>224</v>
       </c>
-      <c r="C42" s="96"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="97"/>
+      <c r="C42" s="127"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="128"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="110" t="s">
+      <c r="B43" s="174" t="s">
         <v>20</v>
       </c>
       <c r="C43" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="190" t="s">
+      <c r="D43" s="204" t="s">
         <v>189</v>
       </c>
-      <c r="E43" s="193"/>
+      <c r="E43" s="205"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B44" s="114"/>
+      <c r="B44" s="175"/>
       <c r="C44" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="D44" s="183" t="s">
+      <c r="D44" s="210" t="s">
         <v>202</v>
       </c>
-      <c r="E44" s="182"/>
+      <c r="E44" s="211"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45" s="120"/>
-      <c r="C45" s="121"/>
-      <c r="D45" s="121"/>
-      <c r="E45" s="122"/>
+      <c r="B45" s="176"/>
+      <c r="C45" s="177"/>
+      <c r="D45" s="177"/>
+      <c r="E45" s="178"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="200" t="s">
+      <c r="C46" s="206" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="201"/>
-      <c r="E46" s="202"/>
+      <c r="D46" s="207"/>
+      <c r="E46" s="208"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="196"/>
-      <c r="C47" s="129"/>
-      <c r="D47" s="129"/>
-      <c r="E47" s="130"/>
+      <c r="B47" s="209"/>
+      <c r="C47" s="165"/>
+      <c r="D47" s="165"/>
+      <c r="E47" s="166"/>
     </row>
     <row r="48" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="64" t="s">
@@ -4912,134 +5120,134 @@
       <c r="C48" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="D48" s="210" t="s">
+      <c r="D48" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="E48" s="217" t="s">
+      <c r="E48" s="117" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B51" s="87" t="s">
+      <c r="B51" s="118" t="s">
         <v>205</v>
       </c>
-      <c r="C51" s="88"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="89"/>
+      <c r="C51" s="119"/>
+      <c r="D51" s="119"/>
+      <c r="E51" s="120"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="95" t="s">
+      <c r="B52" s="126" t="s">
         <v>225</v>
       </c>
-      <c r="C52" s="96"/>
-      <c r="D52" s="96"/>
-      <c r="E52" s="97"/>
+      <c r="C52" s="127"/>
+      <c r="D52" s="127"/>
+      <c r="E52" s="128"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="145" t="s">
+      <c r="C53" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="D53" s="190" t="s">
+      <c r="D53" s="204" t="s">
         <v>189</v>
       </c>
-      <c r="E53" s="193"/>
+      <c r="E53" s="205"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="120"/>
-      <c r="C54" s="121"/>
-      <c r="D54" s="121"/>
-      <c r="E54" s="122"/>
+      <c r="B54" s="176"/>
+      <c r="C54" s="177"/>
+      <c r="D54" s="177"/>
+      <c r="E54" s="178"/>
     </row>
     <row r="55" spans="2:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="B55" s="99" t="s">
+      <c r="B55" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="C55" s="145" t="s">
+      <c r="C55" s="92" t="s">
         <v>201</v>
       </c>
-      <c r="D55" s="144" t="s">
+      <c r="D55" s="91" t="s">
         <v>150</v>
       </c>
-      <c r="E55" s="204" t="s">
+      <c r="E55" s="107" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="99"/>
-      <c r="C56" s="145" t="s">
+      <c r="B56" s="130"/>
+      <c r="C56" s="92" t="s">
         <v>207</v>
       </c>
-      <c r="D56" s="144" t="s">
+      <c r="D56" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="204" t="s">
+      <c r="E56" s="107" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="108" x14ac:dyDescent="0.2">
-      <c r="B57" s="99"/>
-      <c r="C57" s="145" t="s">
+      <c r="B57" s="130"/>
+      <c r="C57" s="92" t="s">
         <v>208</v>
       </c>
-      <c r="D57" s="144" t="s">
+      <c r="D57" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="E57" s="204" t="s">
+      <c r="E57" s="107" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="128"/>
-      <c r="C58" s="98"/>
-      <c r="D58" s="98"/>
-      <c r="E58" s="134"/>
+      <c r="B58" s="164"/>
+      <c r="C58" s="129"/>
+      <c r="D58" s="129"/>
+      <c r="E58" s="181"/>
     </row>
     <row r="59" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B59" s="110" t="s">
+      <c r="B59" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="145" t="s">
+      <c r="C59" s="92" t="s">
         <v>119</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E59" s="216" t="s">
+      <c r="E59" s="116" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="143"/>
-      <c r="C60" s="205" t="s">
+      <c r="B60" s="203"/>
+      <c r="C60" s="108" t="s">
         <v>201</v>
       </c>
-      <c r="D60" s="214" t="s">
+      <c r="D60" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="E60" s="215" t="s">
+      <c r="E60" s="115" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B63" s="103" t="s">
+      <c r="B63" s="158" t="s">
         <v>214</v>
       </c>
-      <c r="C63" s="104"/>
-      <c r="D63" s="104"/>
-      <c r="E63" s="105"/>
+      <c r="C63" s="159"/>
+      <c r="D63" s="159"/>
+      <c r="E63" s="160"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="135" t="s">
+      <c r="B64" s="185" t="s">
         <v>226</v>
       </c>
-      <c r="C64" s="136"/>
-      <c r="D64" s="136"/>
-      <c r="E64" s="137"/>
+      <c r="C64" s="186"/>
+      <c r="D64" s="186"/>
+      <c r="E64" s="187"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="60" t="s">
@@ -5048,31 +5256,58 @@
       <c r="C65" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="D65" s="144" t="s">
+      <c r="D65" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="E65" s="203" t="s">
+      <c r="E65" s="106" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="147"/>
-      <c r="C66" s="148"/>
-      <c r="D66" s="148"/>
-      <c r="E66" s="149"/>
+      <c r="B66" s="198"/>
+      <c r="C66" s="199"/>
+      <c r="D66" s="199"/>
+      <c r="E66" s="200"/>
     </row>
     <row r="67" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B67" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="218" t="s">
+      <c r="C67" s="195" t="s">
         <v>135</v>
       </c>
-      <c r="D67" s="219"/>
-      <c r="E67" s="220"/>
+      <c r="D67" s="196"/>
+      <c r="E67" s="197"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="D43:E43"/>
     <mergeCell ref="B63:E63"/>
     <mergeCell ref="B64:E64"/>
     <mergeCell ref="C67:E67"/>
@@ -5089,33 +5324,6 @@
     <mergeCell ref="C46:E46"/>
     <mergeCell ref="B47:E47"/>
     <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B8:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5158,23 +5366,23 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="158" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="105"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="160"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="185" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="137"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="187"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="126" t="s">
+      <c r="B5" s="162" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="57"/>
@@ -5182,19 +5390,19 @@
       <c r="E5" s="58"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="142"/>
+      <c r="B6" s="220"/>
       <c r="C6" s="56"/>
       <c r="D6" s="81"/>
       <c r="E6" s="83"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="120"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="122"/>
+      <c r="B7" s="176"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="178"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="174" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="62"/>
@@ -5202,7 +5410,7 @@
       <c r="E8" s="63"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="114"/>
+      <c r="B9" s="175"/>
       <c r="C9" s="56"/>
       <c r="D9" s="8"/>
       <c r="E9" s="61"/>
@@ -5214,7 +5422,7 @@
       <c r="E10" s="67"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="174" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="56"/>
@@ -5222,7 +5430,7 @@
       <c r="E11" s="20"/>
     </row>
     <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="143"/>
+      <c r="B12" s="203"/>
       <c r="C12" s="22"/>
       <c r="D12" s="32"/>
       <c r="E12" s="29"/>

--- a/doc/数据融合中心 数据服务API(更新中).xlsx
+++ b/doc/数据融合中心 数据服务API(更新中).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049132E7-295E-456F-BD95-112BA8F905A9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D67EF70-7799-4B72-B31A-0C42B55E6993}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="7155" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="权限" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="237">
   <si>
     <t>/api/auth/token</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1017,6 +1017,33 @@
   </si>
   <si>
     <t>查询模块字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%actionId%</t>
+  </si>
+  <si>
+    <t>通过点击操作按钮进行保存的actionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>premises</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以执行的操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1187,7 +1214,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1206,8 +1233,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1622,12 +1655,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1654,25 +1709,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1689,16 +1734,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1733,15 +1775,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1751,9 +1787,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1769,12 +1802,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1784,43 +1811,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1835,9 +1832,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1871,23 +1865,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1898,7 +1880,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1938,7 +1920,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1959,13 +1941,111 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2014,19 +2094,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2035,15 +2208,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2056,117 +2220,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2176,6 +2241,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2188,23 +2262,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2215,14 +2292,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2230,24 +2301,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2260,80 +2313,72 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2638,57 +2683,57 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="125" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="120"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="127"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
-      <c r="G3" s="125" t="s">
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="135"/>
+      <c r="G3" s="132" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="131" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="129" t="s">
+      <c r="D4" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="129"/>
-      <c r="G4" s="125"/>
+      <c r="E4" s="136"/>
+      <c r="G4" s="132"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="124"/>
+      <c r="B5" s="131"/>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="129"/>
-      <c r="G5" s="125"/>
+      <c r="E5" s="136"/>
+      <c r="G5" s="132"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="121"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="123"/>
-      <c r="G6" s="125"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="130"/>
+      <c r="G6" s="132"/>
     </row>
     <row r="7" spans="2:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="131" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2700,10 +2745,10 @@
       <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="125"/>
+      <c r="G7" s="132"/>
     </row>
     <row r="8" spans="2:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="B8" s="124"/>
+      <c r="B8" s="131"/>
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
@@ -2713,10 +2758,10 @@
       <c r="E8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="125"/>
+      <c r="G8" s="132"/>
     </row>
     <row r="9" spans="2:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="124"/>
+      <c r="B9" s="131"/>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
@@ -2726,7 +2771,7 @@
       <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="125"/>
+      <c r="G9" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2762,48 +2807,48 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="120"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="127"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="135"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="132" t="s">
+      <c r="C4" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="132"/>
-      <c r="E4" s="133"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="140"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="130"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="131"/>
+      <c r="B5" s="137"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="138"/>
     </row>
     <row r="6" spans="2:5" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="24" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2821,10 +2866,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2841EEAF-8B01-4C4B-B25A-06D60427D9CE}">
-  <dimension ref="B1:E107"/>
+  <dimension ref="B1:E112"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2837,41 +2882,41 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="120"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="127"/>
     </row>
     <row r="3" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="156" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="153"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="158"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="170" t="s">
+      <c r="D4" s="144" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="171"/>
+      <c r="E4" s="145"/>
     </row>
     <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="176"/>
-      <c r="C5" s="177"/>
-      <c r="D5" s="177"/>
-      <c r="E5" s="178"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="161"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="130" t="s">
+      <c r="B6" s="137" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2880,960 +2925,1003 @@
       <c r="D6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="130"/>
+      <c r="B7" s="137"/>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="130"/>
+      <c r="B8" s="137"/>
       <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="164"/>
-      <c r="C9" s="165"/>
-      <c r="D9" s="165"/>
-      <c r="E9" s="166"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="167"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="161" t="s">
+      <c r="B10" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="161"/>
-      <c r="C11" s="73" t="s">
+      <c r="B11" s="162"/>
+      <c r="C11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="80" t="s">
+      <c r="E11" s="59" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="161"/>
-      <c r="C12" s="73" t="s">
+      <c r="B12" s="162"/>
+      <c r="C12" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="161"/>
-      <c r="C13" s="41" t="s">
+      <c r="B13" s="162"/>
+      <c r="C13" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="162"/>
-      <c r="C14" s="41" t="s">
+      <c r="B14" s="163"/>
+      <c r="C14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B15" s="162"/>
-      <c r="C15" s="74" t="s">
+      <c r="B15" s="163"/>
+      <c r="C15" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="75" t="s">
+      <c r="E15" s="54" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="162"/>
-      <c r="C16" s="74" t="s">
+      <c r="B16" s="163"/>
+      <c r="C16" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="71" t="s">
+      <c r="D16" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="75" t="s">
+      <c r="E16" s="54" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="72" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="163"/>
-      <c r="C17" s="76" t="s">
+      <c r="B17" s="164"/>
+      <c r="C17" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="77" t="s">
+      <c r="D17" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="78" t="s">
+      <c r="E17" s="57" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E18" s="37"/>
+      <c r="E18" s="32"/>
     </row>
     <row r="19" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="158" t="s">
+      <c r="B20" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="159"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="160"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="148"/>
     </row>
     <row r="21" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="167" t="s">
+      <c r="B21" s="149" t="s">
         <v>158</v>
       </c>
-      <c r="C21" s="168"/>
-      <c r="D21" s="168"/>
-      <c r="E21" s="169"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="151"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="170" t="s">
+      <c r="D22" s="144" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="171"/>
+      <c r="E22" s="145"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="51"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="43"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="156" t="s">
+      <c r="C24" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="156"/>
-      <c r="E24" s="157"/>
+      <c r="D24" s="172"/>
+      <c r="E24" s="173"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="54"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="55"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="45"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="130" t="s">
+      <c r="B26" s="137" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="223" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="172"/>
-      <c r="C27" s="26" t="s">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="142"/>
+      <c r="C27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="224" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="16"/>
-    </row>
-    <row r="29" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="158" t="s">
+      <c r="B28" s="142"/>
+      <c r="C28" s="228" t="s">
+        <v>232</v>
+      </c>
+      <c r="D28" s="229" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="230" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="141"/>
+      <c r="C29" s="231" t="s">
+        <v>233</v>
+      </c>
+      <c r="D29" s="232" t="s">
+        <v>234</v>
+      </c>
+      <c r="E29" s="233" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="159"/>
-      <c r="D30" s="159"/>
-      <c r="E30" s="160"/>
-    </row>
-    <row r="31" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="167" t="s">
+      <c r="C32" s="104"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="105"/>
+    </row>
+    <row r="33" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="106" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="168"/>
-      <c r="D31" s="168"/>
-      <c r="E31" s="169"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="174" t="s">
+      <c r="C33" s="107"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="108"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="170" t="s">
+      <c r="D34" s="144" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="171"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="175"/>
-      <c r="C33" s="2" t="s">
+      <c r="E34" s="145"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="155"/>
+      <c r="C35" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="173" t="s">
+      <c r="D35" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="171"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="51"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="53"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="25" t="s">
+      <c r="E35" s="145"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="13"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="43"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="124" t="s">
+      <c r="C37" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="124"/>
-      <c r="E35" s="131"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="54"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="55"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="130" t="s">
+      <c r="D37" s="131"/>
+      <c r="E37" s="138"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="44"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="45"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D39" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E39" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="130"/>
-      <c r="C38" s="2" t="s">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="137"/>
+      <c r="C40" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D40" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E40" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="172"/>
-      <c r="C39" s="22" t="s">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="142"/>
+      <c r="C41" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="D41" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="50" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="142"/>
+      <c r="C42" s="234" t="s">
+        <v>233</v>
+      </c>
+      <c r="D42" s="235" t="s">
+        <v>234</v>
+      </c>
+      <c r="E42" s="236" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="141"/>
+      <c r="C43" s="231" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D43" s="232" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="29" t="s">
+      <c r="E43" s="233" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="158" t="s">
+    <row r="45" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="159"/>
-      <c r="D42" s="159"/>
-      <c r="E42" s="160"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="167" t="s">
+      <c r="C46" s="104"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="105"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="106" t="s">
         <v>160</v>
       </c>
-      <c r="C43" s="168"/>
-      <c r="D43" s="168"/>
-      <c r="E43" s="169"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B44" s="30" t="s">
+      <c r="C47" s="107"/>
+      <c r="D47" s="107"/>
+      <c r="E47" s="108"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C48" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="170" t="s">
+      <c r="D48" s="144" t="s">
         <v>43</v>
       </c>
-      <c r="E44" s="171"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45" s="51"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="53"/>
-    </row>
-    <row r="46" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B46" s="174" t="s">
+      <c r="E48" s="145"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="13"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="43"/>
+    </row>
+    <row r="50" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B50" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D46" s="31" t="s">
+      <c r="D50" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E46" s="33" t="s">
+      <c r="E50" s="28" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B47" s="179"/>
-      <c r="C47" s="2" t="s">
+    <row r="51" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B51" s="143"/>
+      <c r="C51" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D51" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E47" s="33" t="s">
+      <c r="E51" s="28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="175"/>
-      <c r="C48" s="2" t="s">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="143"/>
+      <c r="C52" s="225" t="s">
+        <v>230</v>
+      </c>
+      <c r="D52" s="226" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="227" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="155"/>
+      <c r="C53" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D53" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E48" s="34" t="s">
+      <c r="E53" s="29" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="50"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="49"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="130" t="s">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="42"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="41"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D55" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E55" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="172"/>
-      <c r="C51" s="22" t="s">
+    <row r="56" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="141"/>
+      <c r="C56" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D51" s="32" t="s">
+      <c r="D56" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E51" s="35" t="s">
+      <c r="E56" s="30" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="158" t="s">
+    <row r="58" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="159"/>
-      <c r="D54" s="159"/>
-      <c r="E54" s="160"/>
-    </row>
-    <row r="55" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="167" t="s">
+      <c r="C59" s="104"/>
+      <c r="D59" s="104"/>
+      <c r="E59" s="105"/>
+    </row>
+    <row r="60" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="106" t="s">
         <v>162</v>
       </c>
-      <c r="C55" s="168"/>
-      <c r="D55" s="168"/>
-      <c r="E55" s="169"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="174" t="s">
+      <c r="C60" s="107"/>
+      <c r="D60" s="107"/>
+      <c r="E60" s="108"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C61" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="170" t="s">
+      <c r="D61" s="144" t="s">
         <v>43</v>
       </c>
-      <c r="E56" s="171"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="175"/>
-      <c r="C57" s="6" t="s">
+      <c r="E61" s="145"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="155"/>
+      <c r="C62" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="170" t="s">
+      <c r="D62" s="144" t="s">
         <v>65</v>
       </c>
-      <c r="E57" s="171"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="46"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="48"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="30" t="s">
+      <c r="E62" s="145"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="38"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="40"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B64" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="121" t="s">
+      <c r="C64" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="122"/>
-      <c r="E59" s="180"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="50"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="49"/>
-    </row>
-    <row r="61" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="27" t="s">
+      <c r="D64" s="129"/>
+      <c r="E64" s="174"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="42"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="41"/>
+    </row>
+    <row r="66" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C66" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D61" s="32" t="s">
+      <c r="D66" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E61" s="35" t="s">
+      <c r="E66" s="30" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="85"/>
-      <c r="E62" s="94"/>
-    </row>
-    <row r="63" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="221" t="s">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="69"/>
+    </row>
+    <row r="68" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="109" t="s">
         <v>172</v>
       </c>
-      <c r="C64" s="222"/>
-      <c r="D64" s="222"/>
-      <c r="E64" s="223"/>
-    </row>
-    <row r="65" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="224" t="s">
+      <c r="C69" s="110"/>
+      <c r="D69" s="110"/>
+      <c r="E69" s="111"/>
+    </row>
+    <row r="70" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="112" t="s">
         <v>162</v>
       </c>
-      <c r="C65" s="225"/>
-      <c r="D65" s="225"/>
-      <c r="E65" s="226"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="227" t="s">
+      <c r="C70" s="113"/>
+      <c r="D70" s="113"/>
+      <c r="E70" s="114"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="C66" s="228" t="s">
+      <c r="C71" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="D66" s="229" t="s">
+      <c r="D71" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="E66" s="230"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="231"/>
-      <c r="C67" s="228"/>
-      <c r="D67" s="228"/>
-      <c r="E67" s="232"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="227" t="s">
+      <c r="E71" s="153"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72" s="117"/>
+      <c r="C72" s="116"/>
+      <c r="D72" s="116"/>
+      <c r="E72" s="118"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B73" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="C68" s="233" t="s">
+      <c r="C73" s="119" t="s">
         <v>173</v>
       </c>
-      <c r="D68" s="234" t="s">
+      <c r="D73" s="168" t="s">
         <v>174</v>
       </c>
-      <c r="E68" s="235"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B69" s="227"/>
-      <c r="C69" s="233"/>
-      <c r="D69" s="233"/>
-      <c r="E69" s="236"/>
-    </row>
-    <row r="70" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="237" t="s">
+      <c r="E73" s="169"/>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B74" s="115"/>
+      <c r="C74" s="119"/>
+      <c r="D74" s="119"/>
+      <c r="E74" s="120"/>
+    </row>
+    <row r="75" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="C70" s="238" t="s">
+      <c r="C75" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="D70" s="239" t="s">
+      <c r="D75" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="240" t="s">
+      <c r="E75" s="124" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="85"/>
-      <c r="E71" s="94"/>
-    </row>
-    <row r="72" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="158" t="s">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="69"/>
+    </row>
+    <row r="77" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="C73" s="159"/>
-      <c r="D73" s="159"/>
-      <c r="E73" s="160"/>
-    </row>
-    <row r="74" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="167" t="s">
+      <c r="C78" s="104"/>
+      <c r="D78" s="104"/>
+      <c r="E78" s="105"/>
+    </row>
+    <row r="79" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="106" t="s">
         <v>161</v>
       </c>
-      <c r="C74" s="168"/>
-      <c r="D74" s="168"/>
-      <c r="E74" s="169"/>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B75" s="174" t="s">
+      <c r="C79" s="107"/>
+      <c r="D79" s="107"/>
+      <c r="E79" s="108"/>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B80" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C80" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D75" s="170" t="s">
+      <c r="D80" s="144" t="s">
         <v>43</v>
       </c>
-      <c r="E75" s="171"/>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B76" s="179"/>
-      <c r="C76" s="6" t="s">
+      <c r="E80" s="145"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="143"/>
+      <c r="C81" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="170" t="s">
+      <c r="D81" s="144" t="s">
         <v>69</v>
       </c>
-      <c r="E76" s="171"/>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B77" s="46"/>
-      <c r="C77" s="47"/>
-      <c r="D77" s="47"/>
-      <c r="E77" s="48"/>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B78" s="130" t="s">
+      <c r="E81" s="145"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B82" s="38"/>
+      <c r="C82" s="39"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="40"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B83" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D83" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E78" s="18" t="s">
+      <c r="E83" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B79" s="130"/>
-      <c r="C79" s="2" t="s">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B84" s="137"/>
+      <c r="C84" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D84" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E79" s="18" t="s">
+      <c r="E84" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B80" s="130"/>
-      <c r="C80" s="2" t="s">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B85" s="137"/>
+      <c r="C85" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D85" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E80" s="18" t="s">
+      <c r="E85" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B81" s="130"/>
-      <c r="C81" s="7" t="s">
+    <row r="86" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B86" s="137"/>
+      <c r="C86" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D86" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E81" s="19" t="s">
+      <c r="E86" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B82" s="42"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="43"/>
-      <c r="E82" s="44"/>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="130" t="s">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B87" s="35"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="37"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B88" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C88" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="D88" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E83" s="21" t="s">
+      <c r="E88" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="172"/>
-      <c r="C84" s="22" t="s">
+    <row r="89" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="141"/>
+      <c r="C89" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D84" s="23" t="s">
+      <c r="D89" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E84" s="24" t="s">
+      <c r="E89" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B87" s="158" t="s">
+    <row r="91" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B92" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="C87" s="159"/>
-      <c r="D87" s="159"/>
-      <c r="E87" s="160"/>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B88" s="167" t="s">
+      <c r="C92" s="104"/>
+      <c r="D92" s="104"/>
+      <c r="E92" s="105"/>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B93" s="106" t="s">
         <v>163</v>
       </c>
-      <c r="C88" s="168"/>
-      <c r="D88" s="168"/>
-      <c r="E88" s="169"/>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B89" s="174" t="s">
+      <c r="C93" s="107"/>
+      <c r="D93" s="107"/>
+      <c r="E93" s="108"/>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B94" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C94" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D89" s="170" t="s">
+      <c r="D94" s="144" t="s">
         <v>43</v>
       </c>
-      <c r="E89" s="171"/>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B90" s="179"/>
-      <c r="C90" s="6" t="s">
+      <c r="E94" s="145"/>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B95" s="143"/>
+      <c r="C95" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D90" s="170" t="s">
+      <c r="D95" s="144" t="s">
         <v>69</v>
       </c>
-      <c r="E90" s="171"/>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B91" s="46"/>
-      <c r="C91" s="47"/>
-      <c r="D91" s="47"/>
-      <c r="E91" s="48"/>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B92" s="130" t="s">
+      <c r="E95" s="145"/>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B96" s="38"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="40"/>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B97" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D97" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E92" s="18" t="s">
+      <c r="E97" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B93" s="130"/>
-      <c r="C93" s="2" t="s">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B98" s="137"/>
+      <c r="C98" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="D98" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E93" s="18" t="s">
+      <c r="E98" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B94" s="42"/>
-      <c r="C94" s="43"/>
-      <c r="D94" s="43"/>
-      <c r="E94" s="44"/>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B95" s="130" t="s">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B99" s="35"/>
+      <c r="C99" s="36"/>
+      <c r="D99" s="36"/>
+      <c r="E99" s="37"/>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B100" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C100" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D95" s="11" t="s">
+      <c r="D100" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E95" s="18" t="s">
+      <c r="E100" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="96" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="172"/>
-      <c r="C96" s="22" t="s">
+    <row r="101" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="141"/>
+      <c r="C101" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D96" s="23" t="s">
+      <c r="D101" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E96" s="36" t="s">
+      <c r="E101" s="31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="98" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B99" s="148" t="s">
+    <row r="103" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B104" s="97" t="s">
         <v>175</v>
       </c>
-      <c r="C99" s="149"/>
-      <c r="D99" s="149"/>
-      <c r="E99" s="150"/>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B100" s="151" t="s">
+      <c r="C104" s="98"/>
+      <c r="D104" s="98"/>
+      <c r="E104" s="99"/>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B105" s="100" t="s">
         <v>176</v>
       </c>
-      <c r="C100" s="152"/>
-      <c r="D100" s="152"/>
-      <c r="E100" s="153"/>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B101" s="146" t="s">
+      <c r="C105" s="101"/>
+      <c r="D105" s="101"/>
+      <c r="E105" s="102"/>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B106" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="C101" s="95" t="s">
+      <c r="C106" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="D101" s="154" t="s">
+      <c r="D106" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="E101" s="155"/>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B102" s="147"/>
-      <c r="C102" s="95" t="s">
+      <c r="E106" s="171"/>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B107" s="182"/>
+      <c r="C107" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="D102" s="144" t="s">
+      <c r="D107" s="179" t="s">
         <v>178</v>
       </c>
-      <c r="E102" s="145"/>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B103" s="141"/>
-      <c r="C103" s="142"/>
-      <c r="D103" s="142"/>
-      <c r="E103" s="143"/>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B104" s="74" t="s">
+      <c r="E107" s="180"/>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B108" s="95"/>
+      <c r="C108" s="70"/>
+      <c r="D108" s="70"/>
+      <c r="E108" s="96"/>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B109" s="53" t="s">
         <v>184</v>
       </c>
-      <c r="C104" s="96" t="s">
+      <c r="C109" s="71" t="s">
         <v>173</v>
       </c>
-      <c r="D104" s="139" t="s">
+      <c r="D109" s="177" t="s">
         <v>179</v>
       </c>
-      <c r="E104" s="140"/>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B105" s="136"/>
-      <c r="C105" s="137"/>
-      <c r="D105" s="137"/>
-      <c r="E105" s="138"/>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B106" s="134" t="s">
+      <c r="E109" s="178"/>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B110" s="92"/>
+      <c r="C110" s="93"/>
+      <c r="D110" s="93"/>
+      <c r="E110" s="94"/>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B111" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="C106" s="97" t="s">
+      <c r="C111" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="D106" s="98" t="s">
+      <c r="D111" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E106" s="99" t="s">
+      <c r="E111" s="74" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="107" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="135"/>
-      <c r="C107" s="100" t="s">
+    <row r="112" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="176"/>
+      <c r="C112" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="D107" s="101" t="s">
+      <c r="D112" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="E107" s="102" t="s">
+      <c r="E112" s="77" t="s">
         <v>183</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="B78:B81"/>
+  <mergeCells count="41">
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D73:E73"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="C37:E37"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B26:B29"/>
     <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="B99:E99"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="B105:E105"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3848,8 +3936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB3E66F-D173-45C2-B2C6-24F96CBE92EE}">
   <dimension ref="B1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:E22"/>
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3861,39 +3949,39 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="120"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="127"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="133" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="135"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="182" t="s">
+      <c r="C4" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="183"/>
-      <c r="E4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="185"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="176"/>
-      <c r="C5" s="177"/>
-      <c r="D5" s="177"/>
-      <c r="E5" s="178"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="161"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="21" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -3902,77 +3990,77 @@
       <c r="D6" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="164"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="181"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="186"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="137" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="B9" s="130"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="137"/>
+      <c r="C9" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B12" s="118" t="s">
+      <c r="B12" s="125" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="127"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="126" t="s">
+      <c r="B13" s="133" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="128"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="182" t="s">
+      <c r="C14" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="183"/>
-      <c r="E14" s="184"/>
+      <c r="D14" s="184"/>
+      <c r="E14" s="185"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="176"/>
-      <c r="C15" s="177"/>
-      <c r="D15" s="177"/>
-      <c r="E15" s="178"/>
+      <c r="B15" s="159"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="161"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="21" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -3981,129 +4069,128 @@
       <c r="D16" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="14" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="164"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="181"/>
+      <c r="B17" s="165"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="186"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="130" t="s">
+      <c r="B18" s="137" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="130"/>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="137"/>
+      <c r="C19" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="16" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B22" s="118" t="s">
+      <c r="B22" s="125" t="s">
         <v>229</v>
       </c>
-      <c r="C22" s="119"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="120"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="127"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="126" t="s">
+      <c r="B23" s="133" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="128"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="135"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="90" t="s">
+      <c r="B24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="182" t="s">
+      <c r="C24" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="183"/>
-      <c r="E24" s="184"/>
+      <c r="D24" s="184"/>
+      <c r="E24" s="185"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="176"/>
-      <c r="C25" s="177"/>
-      <c r="D25" s="177"/>
-      <c r="E25" s="178"/>
+      <c r="B25" s="159"/>
+      <c r="C25" s="160"/>
+      <c r="D25" s="160"/>
+      <c r="E25" s="161"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="87" t="s">
+      <c r="C26" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="89" t="s">
+      <c r="E26" s="14" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="164"/>
-      <c r="C27" s="129"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="181"/>
+      <c r="B27" s="165"/>
+      <c r="C27" s="136"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="186"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="130" t="s">
+      <c r="B28" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="87" t="s">
+      <c r="C28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B29" s="130"/>
-      <c r="C29" s="10" t="s">
+      <c r="B29" s="137"/>
+      <c r="C29" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="16" t="s">
         <v>94</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C4:E4"/>
@@ -4111,11 +4198,12 @@
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B27:E27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4140,557 +4228,555 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="125" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="120"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="127"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="133" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="135"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="170" t="s">
+      <c r="D4" s="144" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="171"/>
+      <c r="E4" s="145"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="176"/>
-      <c r="C5" s="177"/>
-      <c r="D5" s="177"/>
-      <c r="E5" s="178"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="161"/>
     </row>
     <row r="6" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="130" t="s">
+      <c r="B6" s="137" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E6" s="82" t="s">
+      <c r="E6" s="61" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="130"/>
-      <c r="C7" s="39" t="s">
+      <c r="B7" s="137"/>
+      <c r="C7" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="130"/>
-      <c r="C8" s="39" t="s">
+      <c r="B8" s="137"/>
+      <c r="C8" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="130"/>
-      <c r="C9" s="39" t="s">
+      <c r="B9" s="137"/>
+      <c r="C9" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="14" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="B10" s="130"/>
+      <c r="B10" s="137"/>
       <c r="C10" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="15" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="41"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="19"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="158" t="s">
+      <c r="B15" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="C15" s="159"/>
-      <c r="D15" s="159"/>
-      <c r="E15" s="160"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="148"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="185" t="s">
+      <c r="B16" s="187" t="s">
         <v>218</v>
       </c>
-      <c r="C16" s="186"/>
-      <c r="D16" s="186"/>
-      <c r="E16" s="187"/>
+      <c r="C16" s="188"/>
+      <c r="D16" s="188"/>
+      <c r="E16" s="189"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="81" t="s">
+      <c r="D17" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="83" t="s">
+      <c r="E17" s="62" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="176"/>
-      <c r="C18" s="177"/>
-      <c r="D18" s="177"/>
-      <c r="E18" s="178"/>
+      <c r="B18" s="159"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="161"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="2" t="s">
         <v>165</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="61" t="s">
+      <c r="E19" s="14" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="54"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="55"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="45"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="130" t="s">
+      <c r="B21" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="20"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="16"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="130"/>
-      <c r="C22" s="39" t="s">
+      <c r="B22" s="137"/>
+      <c r="C22" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="16" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="174"/>
-      <c r="C23" s="69" t="s">
+      <c r="B23" s="142"/>
+      <c r="C23" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="84" t="s">
+      <c r="D23" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="E23" s="70" t="s">
+      <c r="E23" s="50" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="174"/>
-      <c r="C24" s="69" t="s">
+      <c r="B24" s="142"/>
+      <c r="C24" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="D24" s="84" t="s">
+      <c r="D24" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="70" t="s">
+      <c r="E24" s="50" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="174"/>
-      <c r="C25" s="69" t="s">
+      <c r="B25" s="142"/>
+      <c r="C25" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="84" t="s">
+      <c r="D25" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="E25" s="70" t="s">
+      <c r="E25" s="50" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="B26" s="174"/>
-      <c r="C26" s="69" t="s">
+      <c r="B26" s="142"/>
+      <c r="C26" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="D26" s="84" t="s">
+      <c r="D26" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="70" t="s">
+      <c r="E26" s="50" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="172"/>
-      <c r="C27" s="22" t="s">
+      <c r="B27" s="141"/>
+      <c r="C27" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="E27" s="24" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="86"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="65"/>
     </row>
     <row r="29" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="86"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="65"/>
     </row>
     <row r="30" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B30" s="118" t="s">
+      <c r="B30" s="125" t="s">
         <v>139</v>
       </c>
-      <c r="C30" s="119"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="120"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="127"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="126" t="s">
+      <c r="B31" s="133" t="s">
         <v>219</v>
       </c>
-      <c r="C31" s="127"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="128"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="135"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="174" t="s">
+      <c r="B32" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="188" t="s">
+      <c r="D32" s="193" t="s">
         <v>140</v>
       </c>
-      <c r="E32" s="189"/>
+      <c r="E32" s="194"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="175"/>
-      <c r="C33" s="39" t="s">
+      <c r="B33" s="155"/>
+      <c r="C33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="190" t="s">
+      <c r="D33" s="195" t="s">
         <v>141</v>
       </c>
-      <c r="E33" s="191"/>
+      <c r="E33" s="196"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="176"/>
-      <c r="C34" s="177"/>
-      <c r="D34" s="177"/>
-      <c r="E34" s="178"/>
+      <c r="B34" s="159"/>
+      <c r="C34" s="160"/>
+      <c r="D34" s="160"/>
+      <c r="E34" s="161"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="2" t="s">
         <v>142</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="45" t="s">
+      <c r="E35" s="14" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="164"/>
-      <c r="C36" s="129"/>
-      <c r="D36" s="129"/>
-      <c r="E36" s="181"/>
+      <c r="B36" s="165"/>
+      <c r="C36" s="136"/>
+      <c r="D36" s="136"/>
+      <c r="E36" s="186"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="130" t="s">
+      <c r="B37" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="16" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="130"/>
-      <c r="C38" s="10" t="s">
+      <c r="B38" s="137"/>
+      <c r="C38" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="16" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="86"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="65"/>
     </row>
     <row r="40" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="86"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="65"/>
     </row>
     <row r="41" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B41" s="158" t="s">
+      <c r="B41" s="146" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="159"/>
-      <c r="D41" s="159"/>
-      <c r="E41" s="160"/>
+      <c r="C41" s="147"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="148"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="185" t="s">
+      <c r="B42" s="187" t="s">
         <v>216</v>
       </c>
-      <c r="C42" s="186"/>
-      <c r="D42" s="186"/>
-      <c r="E42" s="187"/>
+      <c r="C42" s="188"/>
+      <c r="D42" s="188"/>
+      <c r="E42" s="189"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="60" t="s">
+      <c r="B43" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="56" t="s">
+      <c r="C43" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D43" s="81" t="s">
+      <c r="D43" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="E43" s="83" t="s">
+      <c r="E43" s="62" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B44" s="66"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="67"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="45"/>
     </row>
     <row r="45" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="192" t="s">
+      <c r="C45" s="190" t="s">
         <v>135</v>
       </c>
-      <c r="D45" s="193"/>
-      <c r="E45" s="194"/>
+      <c r="D45" s="191"/>
+      <c r="E45" s="192"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
     </row>
     <row r="47" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B48" s="158" t="s">
+      <c r="B48" s="146" t="s">
         <v>146</v>
       </c>
-      <c r="C48" s="159"/>
-      <c r="D48" s="159"/>
-      <c r="E48" s="160"/>
+      <c r="C48" s="147"/>
+      <c r="D48" s="147"/>
+      <c r="E48" s="148"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="185" t="s">
+      <c r="B49" s="187" t="s">
         <v>220</v>
       </c>
-      <c r="C49" s="186"/>
-      <c r="D49" s="186"/>
-      <c r="E49" s="187"/>
+      <c r="C49" s="188"/>
+      <c r="D49" s="188"/>
+      <c r="E49" s="189"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="41" t="s">
+      <c r="B50" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D50" s="81" t="s">
+      <c r="D50" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="E50" s="83" t="s">
+      <c r="E50" s="62" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" s="54"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="55"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="45"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="130" t="s">
+      <c r="B52" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="39" t="s">
+      <c r="C52" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="E52" s="16" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="130"/>
-      <c r="C53" s="39" t="s">
+      <c r="B53" s="137"/>
+      <c r="C53" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="20" t="s">
+      <c r="E53" s="16" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="174"/>
-      <c r="C54" s="69" t="s">
+      <c r="B54" s="142"/>
+      <c r="C54" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="D54" s="84" t="s">
+      <c r="D54" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="70"/>
+      <c r="E54" s="50"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" s="174"/>
-      <c r="C55" s="69" t="s">
+      <c r="B55" s="142"/>
+      <c r="C55" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="D55" s="84" t="s">
+      <c r="D55" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="E55" s="70" t="s">
+      <c r="E55" s="50" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="174"/>
-      <c r="C56" s="69" t="s">
+      <c r="B56" s="142"/>
+      <c r="C56" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="D56" s="84" t="s">
+      <c r="D56" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="E56" s="70" t="s">
+      <c r="E56" s="50" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="174"/>
-      <c r="C57" s="69" t="s">
+      <c r="B57" s="142"/>
+      <c r="C57" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="D57" s="84" t="s">
+      <c r="D57" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="E57" s="70" t="s">
+      <c r="E57" s="50" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="172"/>
-      <c r="C58" s="22" t="s">
+      <c r="B58" s="141"/>
+      <c r="C58" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="D58" s="32" t="s">
+      <c r="D58" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="E58" s="29" t="s">
+      <c r="E58" s="24" t="s">
         <v>155</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B52:B58"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:B10"/>
     <mergeCell ref="B21:B27"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B41:E41"/>
@@ -4700,12 +4786,14 @@
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B52:B58"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="C45:E45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4731,583 +4819,556 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B3" s="158" t="s">
+      <c r="B3" s="146" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="160"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="148"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="185" t="s">
+      <c r="B4" s="187" t="s">
         <v>221</v>
       </c>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="187"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="189"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="201" t="s">
+      <c r="D5" s="220" t="s">
         <v>227</v>
       </c>
-      <c r="E5" s="202"/>
+      <c r="E5" s="221"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="176"/>
-      <c r="C6" s="177"/>
-      <c r="D6" s="177"/>
-      <c r="E6" s="178"/>
+      <c r="B6" s="159"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="161"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="68" t="s">
         <v>168</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="E7" s="63"/>
+      <c r="E7" s="43"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="198"/>
-      <c r="C8" s="199"/>
-      <c r="D8" s="199"/>
-      <c r="E8" s="200"/>
+      <c r="B8" s="204"/>
+      <c r="C8" s="205"/>
+      <c r="D8" s="205"/>
+      <c r="E8" s="206"/>
     </row>
     <row r="9" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="174" t="s">
+      <c r="B9" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="210" t="s">
+      <c r="D9" s="200" t="s">
         <v>187</v>
       </c>
-      <c r="E9" s="211"/>
+      <c r="E9" s="201"/>
     </row>
     <row r="10" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="179"/>
-      <c r="C10" s="56" t="s">
+      <c r="B10" s="143"/>
+      <c r="C10" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D10" s="216" t="s">
+      <c r="D10" s="198" t="s">
         <v>185</v>
       </c>
-      <c r="E10" s="217"/>
+      <c r="E10" s="199"/>
     </row>
     <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="203"/>
-      <c r="C11" s="22" t="s">
+      <c r="B11" s="197"/>
+      <c r="C11" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="D11" s="218" t="s">
+      <c r="D11" s="202" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="219"/>
+      <c r="E11" s="203"/>
     </row>
     <row r="13" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="118" t="s">
+      <c r="B14" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="127"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="126" t="s">
+      <c r="B15" s="133" t="s">
         <v>222</v>
       </c>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="128"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="135"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="D16" s="204" t="s">
+      <c r="D16" s="208" t="s">
         <v>189</v>
       </c>
-      <c r="E16" s="205"/>
+      <c r="E16" s="209"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="176"/>
-      <c r="C17" s="177"/>
-      <c r="D17" s="177"/>
-      <c r="E17" s="178"/>
+      <c r="B17" s="159"/>
+      <c r="C17" s="160"/>
+      <c r="D17" s="160"/>
+      <c r="E17" s="161"/>
     </row>
     <row r="18" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="130" t="s">
+      <c r="B18" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="214" t="s">
+      <c r="D18" s="212" t="s">
         <v>191</v>
       </c>
-      <c r="E18" s="215"/>
+      <c r="E18" s="213"/>
     </row>
     <row r="19" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="130"/>
-      <c r="C19" s="65" t="s">
+      <c r="B19" s="137"/>
+      <c r="C19" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="D19" s="212" t="s">
+      <c r="D19" s="210" t="s">
         <v>192</v>
       </c>
-      <c r="E19" s="213"/>
+      <c r="E19" s="211"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="209"/>
-      <c r="C20" s="165"/>
-      <c r="D20" s="165"/>
-      <c r="E20" s="166"/>
+      <c r="B20" s="207"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="167"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="130" t="s">
+      <c r="B21" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="103" t="s">
+      <c r="E21" s="78" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="130"/>
-      <c r="C22" s="56" t="s">
+      <c r="B22" s="137"/>
+      <c r="C22" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D22" s="111" t="s">
+      <c r="D22" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="103" t="s">
+      <c r="E22" s="78" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="130"/>
-      <c r="C23" s="56" t="s">
+      <c r="B23" s="137"/>
+      <c r="C23" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="91" t="s">
+      <c r="D23" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="103" t="s">
+      <c r="E23" s="78" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="130"/>
-      <c r="C24" s="56" t="s">
+      <c r="B24" s="137"/>
+      <c r="C24" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D24" s="91" t="s">
+      <c r="D24" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="103" t="s">
+      <c r="E24" s="78" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="130"/>
-      <c r="C25" s="56" t="s">
+      <c r="B25" s="137"/>
+      <c r="C25" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="91" t="s">
+      <c r="D25" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="E25" s="103" t="s">
+      <c r="E25" s="78" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="84" x14ac:dyDescent="0.2">
-      <c r="B26" s="130"/>
-      <c r="C26" s="56" t="s">
+      <c r="B26" s="137"/>
+      <c r="C26" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D26" s="91" t="s">
+      <c r="D26" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="103" t="s">
+      <c r="E26" s="78" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="130"/>
-      <c r="C27" s="56" t="s">
+      <c r="B27" s="137"/>
+      <c r="C27" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="91" t="s">
+      <c r="D27" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="103" t="s">
+      <c r="E27" s="78" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="174"/>
-      <c r="C28" s="69" t="s">
+      <c r="B28" s="142"/>
+      <c r="C28" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="D28" s="112" t="s">
+      <c r="D28" s="87" t="s">
         <v>150</v>
       </c>
-      <c r="E28" s="104" t="s">
+      <c r="E28" s="79" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="172"/>
-      <c r="C29" s="22" t="s">
+      <c r="B29" s="141"/>
+      <c r="C29" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="D29" s="113" t="s">
+      <c r="D29" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="105" t="s">
+      <c r="E29" s="80" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B32" s="118" t="s">
+      <c r="B32" s="125" t="s">
         <v>197</v>
       </c>
-      <c r="C32" s="119"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="120"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="127"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="126" t="s">
+      <c r="B33" s="133" t="s">
         <v>223</v>
       </c>
-      <c r="C33" s="127"/>
-      <c r="D33" s="127"/>
-      <c r="E33" s="128"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="135"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="60" t="s">
+      <c r="B34" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="65" t="s">
+      <c r="C34" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="D34" s="204" t="s">
+      <c r="D34" s="208" t="s">
         <v>189</v>
       </c>
-      <c r="E34" s="205"/>
+      <c r="E34" s="209"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="176"/>
-      <c r="C35" s="177"/>
-      <c r="D35" s="177"/>
-      <c r="E35" s="178"/>
+      <c r="B35" s="159"/>
+      <c r="C35" s="160"/>
+      <c r="D35" s="160"/>
+      <c r="E35" s="161"/>
     </row>
     <row r="36" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="60" t="s">
+      <c r="B36" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="206" t="s">
+      <c r="C36" s="214" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="207"/>
-      <c r="E36" s="208"/>
+      <c r="D36" s="215"/>
+      <c r="E36" s="216"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="209"/>
-      <c r="C37" s="165"/>
-      <c r="D37" s="165"/>
-      <c r="E37" s="166"/>
+      <c r="B37" s="207"/>
+      <c r="C37" s="166"/>
+      <c r="D37" s="166"/>
+      <c r="E37" s="167"/>
     </row>
     <row r="38" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="D38" s="110" t="s">
+      <c r="D38" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="109" t="s">
+      <c r="E38" s="84" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B41" s="118" t="s">
+      <c r="B41" s="125" t="s">
         <v>200</v>
       </c>
-      <c r="C41" s="119"/>
-      <c r="D41" s="119"/>
-      <c r="E41" s="120"/>
+      <c r="C41" s="126"/>
+      <c r="D41" s="126"/>
+      <c r="E41" s="127"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="126" t="s">
+      <c r="B42" s="133" t="s">
         <v>224</v>
       </c>
-      <c r="C42" s="127"/>
-      <c r="D42" s="127"/>
-      <c r="E42" s="128"/>
+      <c r="C42" s="134"/>
+      <c r="D42" s="134"/>
+      <c r="E42" s="135"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="174" t="s">
+      <c r="B43" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="65" t="s">
+      <c r="C43" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="204" t="s">
+      <c r="D43" s="208" t="s">
         <v>189</v>
       </c>
-      <c r="E43" s="205"/>
+      <c r="E43" s="209"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B44" s="175"/>
-      <c r="C44" s="65" t="s">
+      <c r="B44" s="155"/>
+      <c r="C44" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="D44" s="210" t="s">
+      <c r="D44" s="200" t="s">
         <v>202</v>
       </c>
-      <c r="E44" s="211"/>
+      <c r="E44" s="201"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45" s="176"/>
-      <c r="C45" s="177"/>
-      <c r="D45" s="177"/>
-      <c r="E45" s="178"/>
+      <c r="B45" s="159"/>
+      <c r="C45" s="160"/>
+      <c r="D45" s="160"/>
+      <c r="E45" s="161"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="60" t="s">
+      <c r="B46" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="206" t="s">
+      <c r="C46" s="214" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="207"/>
-      <c r="E46" s="208"/>
+      <c r="D46" s="215"/>
+      <c r="E46" s="216"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="209"/>
-      <c r="C47" s="165"/>
-      <c r="D47" s="165"/>
-      <c r="E47" s="166"/>
+      <c r="B47" s="207"/>
+      <c r="C47" s="166"/>
+      <c r="D47" s="166"/>
+      <c r="E47" s="167"/>
     </row>
     <row r="48" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="64" t="s">
+      <c r="B48" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="D48" s="110" t="s">
+      <c r="D48" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="E48" s="117" t="s">
+      <c r="E48" s="91" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B51" s="118" t="s">
+      <c r="B51" s="125" t="s">
         <v>205</v>
       </c>
-      <c r="C51" s="119"/>
-      <c r="D51" s="119"/>
-      <c r="E51" s="120"/>
+      <c r="C51" s="126"/>
+      <c r="D51" s="126"/>
+      <c r="E51" s="127"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="126" t="s">
+      <c r="B52" s="133" t="s">
         <v>225</v>
       </c>
-      <c r="C52" s="127"/>
-      <c r="D52" s="127"/>
-      <c r="E52" s="128"/>
+      <c r="C52" s="134"/>
+      <c r="D52" s="134"/>
+      <c r="E52" s="135"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="60" t="s">
+      <c r="B53" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="92" t="s">
+      <c r="C53" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D53" s="204" t="s">
+      <c r="D53" s="208" t="s">
         <v>189</v>
       </c>
-      <c r="E53" s="205"/>
+      <c r="E53" s="209"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="176"/>
-      <c r="C54" s="177"/>
-      <c r="D54" s="177"/>
-      <c r="E54" s="178"/>
+      <c r="B54" s="159"/>
+      <c r="C54" s="160"/>
+      <c r="D54" s="160"/>
+      <c r="E54" s="161"/>
     </row>
     <row r="55" spans="2:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="B55" s="130" t="s">
+      <c r="B55" s="137" t="s">
         <v>206</v>
       </c>
-      <c r="C55" s="92" t="s">
+      <c r="C55" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="D55" s="91" t="s">
+      <c r="D55" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="E55" s="107" t="s">
+      <c r="E55" s="82" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="130"/>
-      <c r="C56" s="92" t="s">
+      <c r="B56" s="137"/>
+      <c r="C56" s="67" t="s">
         <v>207</v>
       </c>
-      <c r="D56" s="91" t="s">
+      <c r="D56" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="107" t="s">
+      <c r="E56" s="82" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="108" x14ac:dyDescent="0.2">
-      <c r="B57" s="130"/>
-      <c r="C57" s="92" t="s">
+      <c r="B57" s="137"/>
+      <c r="C57" s="67" t="s">
         <v>208</v>
       </c>
-      <c r="D57" s="91" t="s">
+      <c r="D57" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E57" s="107" t="s">
+      <c r="E57" s="82" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="164"/>
-      <c r="C58" s="129"/>
-      <c r="D58" s="129"/>
-      <c r="E58" s="181"/>
+      <c r="B58" s="165"/>
+      <c r="C58" s="136"/>
+      <c r="D58" s="136"/>
+      <c r="E58" s="186"/>
     </row>
     <row r="59" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B59" s="174" t="s">
+      <c r="B59" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="92" t="s">
+      <c r="C59" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E59" s="116" t="s">
+      <c r="E59" s="90" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="203"/>
-      <c r="C60" s="108" t="s">
+      <c r="B60" s="197"/>
+      <c r="C60" s="83" t="s">
         <v>201</v>
       </c>
-      <c r="D60" s="114" t="s">
+      <c r="D60" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="E60" s="115" t="s">
+      <c r="E60" s="80" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B63" s="158" t="s">
+      <c r="B63" s="146" t="s">
         <v>214</v>
       </c>
-      <c r="C63" s="159"/>
-      <c r="D63" s="159"/>
-      <c r="E63" s="160"/>
+      <c r="C63" s="147"/>
+      <c r="D63" s="147"/>
+      <c r="E63" s="148"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="185" t="s">
+      <c r="B64" s="187" t="s">
         <v>226</v>
       </c>
-      <c r="C64" s="186"/>
-      <c r="D64" s="186"/>
-      <c r="E64" s="187"/>
+      <c r="C64" s="188"/>
+      <c r="D64" s="188"/>
+      <c r="E64" s="189"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="60" t="s">
+      <c r="B65" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C65" s="56" t="s">
+      <c r="C65" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D65" s="91" t="s">
+      <c r="D65" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="E65" s="106" t="s">
+      <c r="E65" s="81" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="198"/>
-      <c r="C66" s="199"/>
-      <c r="D66" s="199"/>
-      <c r="E66" s="200"/>
+      <c r="B66" s="204"/>
+      <c r="C66" s="205"/>
+      <c r="D66" s="205"/>
+      <c r="E66" s="206"/>
     </row>
     <row r="67" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="64" t="s">
+      <c r="B67" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="195" t="s">
+      <c r="C67" s="217" t="s">
         <v>135</v>
       </c>
-      <c r="D67" s="196"/>
-      <c r="E67" s="197"/>
+      <c r="D67" s="218"/>
+      <c r="E67" s="219"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="D43:E43"/>
     <mergeCell ref="B63:E63"/>
     <mergeCell ref="B64:E64"/>
     <mergeCell ref="C67:E67"/>
@@ -5324,6 +5385,33 @@
     <mergeCell ref="C46:E46"/>
     <mergeCell ref="B47:E47"/>
     <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B8:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5366,74 +5454,74 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B3" s="158" t="s">
+      <c r="B3" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="160"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="148"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="185" t="s">
+      <c r="B4" s="187" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="187"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="189"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="162" t="s">
+      <c r="B5" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="58"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="220"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="83"/>
+      <c r="B6" s="222"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="62"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="176"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="178"/>
+      <c r="B7" s="159"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="161"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="174" t="s">
+      <c r="B8" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="63"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="43"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="175"/>
-      <c r="C9" s="56"/>
+      <c r="B9" s="155"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="61"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="66"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="67"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="45"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="174" t="s">
+      <c r="B11" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="20"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="203"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="29"/>
+      <c r="B12" s="197"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="6">
